--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_25.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_18_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>449249.8920413482</v>
+        <v>444625.7044134497</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7269354.550813801</v>
+        <v>7269354.550813799</v>
       </c>
     </row>
     <row r="9">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="C8" t="n">
-        <v>9.957115893683044</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="D8" t="n">
-        <v>11.3046274905575</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>11.3046274905575</v>
+        <v>1.034003157968966</v>
       </c>
       <c r="F8" t="n">
-        <v>11.3046274905575</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.03641654712531522</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1211,25 +1211,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.957115893683044</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>11.3046274905575</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>11.3046274905575</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>9.957115893683037</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>11.3046274905575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.957115893683046</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>11.3046274905575</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>11.3046274905575</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.957115893683037</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="Y10" t="n">
-        <v>11.3046274905575</v>
+        <v>11.30462749055749</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>58.2213094455774</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>177.106145888134</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>108.7932357292871</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>176.8278631470059</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>277.3402845023203</v>
@@ -1612,7 +1612,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>101.1316211758537</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>111.2238455251051</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>15.33934733964554</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
@@ -1782,7 +1782,7 @@
         <v>163.8185422817731</v>
       </c>
       <c r="H16" t="n">
-        <v>4.726764244840613</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.68284247578064</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>204.5281633465511</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>16.29858000969866</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>63.90941067458683</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.1448086517629</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.632988972596</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>107.5213503936336</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H19" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>154.9126128011615</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.5909258267186</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3402845023203</v>
+        <v>240.326449484906</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2070,7 +2070,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2086,19 +2086,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.5660300744983</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>239.6658916896342</v>
+        <v>75.47528872301208</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>69.4276212792609</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>75.43872475250879</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>154.9126128011615</v>
+        <v>146.4920946148696</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3402845023203</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2304,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>398.1703992041583</v>
+        <v>87.905607088096</v>
       </c>
       <c r="H23" t="n">
-        <v>273.124246907353</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>54.89397221671298</v>
       </c>
       <c r="T23" t="n">
-        <v>209.4129345168493</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.6013385029688</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>306.3918335153041</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2493,7 +2493,7 @@
         <v>163.6410758934176</v>
       </c>
       <c r="H25" t="n">
-        <v>133.88238776369</v>
+        <v>125.5974137694605</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>151.8198576513678</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.8326603492001</v>
       </c>
       <c r="U25" t="n">
-        <v>75.10166138186521</v>
+        <v>277.330604517501</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>148.0050466925955</v>
+        <v>87.90560708809558</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>54.89397221671299</v>
+        <v>54.89397221671298</v>
       </c>
       <c r="T26" t="n">
-        <v>209.4129345168493</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6013385029688</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>141.4822938272163</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>150.8505313695185</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.88238776369</v>
       </c>
       <c r="I28" t="n">
-        <v>70.10182645542086</v>
+        <v>70.10182645542085</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>151.8198576513678</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>236.8326603492001</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>118.4158196744003</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>398.1703992041583</v>
+        <v>87.905607088096</v>
       </c>
       <c r="H29" t="n">
-        <v>273.124246907353</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>54.89397221671298</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6013385029688</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>163.6410758934176</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>133.88238776369</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>70.10182645542086</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>3.703308323000449</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>151.8198576513678</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.3690155881565</v>
       </c>
       <c r="U31" t="n">
-        <v>1.296526603443704</v>
+        <v>277.330604517501</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>272.1038797892121</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
@@ -3037,10 +3037,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>130.4654824876231</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>54.89397221671299</v>
+        <v>54.89397221671298</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>170.0742401206603</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.16210598878575</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>163.6410758934176</v>
+        <v>93.49185561515966</v>
       </c>
       <c r="H34" t="n">
         <v>133.88238776369</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>70.10182645542085</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3.703308323000449</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>151.8198576513678</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.8326603492001</v>
       </c>
       <c r="U34" t="n">
-        <v>277.330604517501</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>398.1703992041583</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>15.95479960764341</v>
+        <v>273.1242469073529</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.4129345168493</v>
       </c>
       <c r="U35" t="n">
         <v>255.6013385029688</v>
@@ -3328,7 +3328,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>327.4252675484922</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3426,22 +3426,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>45.08052574504156</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>14.24262051502048</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.6410758934176</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>133.88238776369</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>277.330604517501</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>319.4810042295715</v>
       </c>
       <c r="F38" t="n">
-        <v>101.1757482366583</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.1703992041583</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>54.89397221671299</v>
+        <v>54.89397221671298</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6013385029688</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>117.4982159234782</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
@@ -3678,10 +3678,10 @@
         <v>163.6410758934176</v>
       </c>
       <c r="H40" t="n">
-        <v>133.88238776369</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>70.10182645542086</v>
+        <v>70.10182645542085</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.703308323000449</v>
+        <v>3.703308323000442</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8326603492001</v>
       </c>
       <c r="U40" t="n">
-        <v>1.296526603443253</v>
+        <v>277.330604517501</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>125.0733349091143</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>273.1242469073529</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>54.89397221671298</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6013385029688</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>115.5417315406158</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -3915,10 +3915,10 @@
         <v>163.6410758934176</v>
       </c>
       <c r="H43" t="n">
-        <v>133.88238776369</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>70.10182645542085</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,16 +3954,16 @@
         <v>236.8326603492001</v>
       </c>
       <c r="U43" t="n">
-        <v>277.330604517501</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>191.3430164625536</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>212.2896463850089</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>418.3509204159127</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3991,7 +3991,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>398.1703992041583</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>273.1242469073529</v>
@@ -4030,7 +4030,7 @@
         <v>54.89397221671298</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.4129345168493</v>
       </c>
       <c r="U44" t="n">
         <v>255.6013385029688</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>184.4766624163894</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4140,19 +4140,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.6410758934176</v>
+        <v>50.80920134175457</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.88238776369</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>151.8198576513678</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8326603492001</v>
       </c>
       <c r="U46" t="n">
-        <v>57.16419149418817</v>
+        <v>277.330604517501</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.21850996223</v>
+        <v>24.8232335186479</v>
       </c>
       <c r="C8" t="n">
-        <v>35.16081714032794</v>
+        <v>13.40441787162013</v>
       </c>
       <c r="D8" t="n">
-        <v>23.74200149330016</v>
+        <v>13.40441787162013</v>
       </c>
       <c r="E8" t="n">
-        <v>12.32318584627238</v>
+        <v>12.35997023730804</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9411545902802715</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="K8" t="n">
-        <v>12.09595141489653</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="L8" t="n">
-        <v>14.67032637388235</v>
+        <v>3.478745158230428</v>
       </c>
       <c r="M8" t="n">
-        <v>25.86190758953428</v>
+        <v>11.48951691371912</v>
       </c>
       <c r="N8" t="n">
-        <v>37.05348880518621</v>
+        <v>20.37965519277599</v>
       </c>
       <c r="O8" t="n">
-        <v>45.21850996223</v>
+        <v>26.60738072233706</v>
       </c>
       <c r="P8" t="n">
-        <v>45.21850996223</v>
+        <v>26.60738072233706</v>
       </c>
       <c r="Q8" t="n">
-        <v>45.21850996223</v>
+        <v>37.79896193798898</v>
       </c>
       <c r="R8" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="S8" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="T8" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="U8" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="V8" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="W8" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="X8" t="n">
-        <v>45.21850996223</v>
+        <v>37.53891517038129</v>
       </c>
       <c r="Y8" t="n">
-        <v>45.21850996223</v>
+        <v>36.24204916567567</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.74200149330016</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="C9" t="n">
-        <v>12.32318584627238</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9043701992446</v>
+        <v>33.7996943152022</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9043701992446</v>
+        <v>23.74200149330014</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9043701992446</v>
+        <v>12.32318584627237</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9043701992446</v>
+        <v>12.32318584627237</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="L9" t="n">
-        <v>8.431783136957176</v>
+        <v>8.431783136957172</v>
       </c>
       <c r="M9" t="n">
-        <v>19.6233643526091</v>
+        <v>19.62336435260909</v>
       </c>
       <c r="N9" t="n">
-        <v>30.81494556826104</v>
+        <v>30.81494556826101</v>
       </c>
       <c r="O9" t="n">
-        <v>40.5482768042455</v>
+        <v>40.54827680424548</v>
       </c>
       <c r="P9" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="Q9" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="R9" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="S9" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="T9" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="U9" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="V9" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="W9" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="X9" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="Y9" t="n">
-        <v>33.79969431520222</v>
+        <v>45.21850996222997</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.32318584627238</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="C10" t="n">
-        <v>12.32318584627238</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9043701992446</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="L10" t="n">
-        <v>12.09595141489653</v>
+        <v>0.9043701992445995</v>
       </c>
       <c r="M10" t="n">
-        <v>12.09595141489653</v>
+        <v>12.09595141489652</v>
       </c>
       <c r="N10" t="n">
-        <v>23.28753263054845</v>
+        <v>12.09595141489652</v>
       </c>
       <c r="O10" t="n">
-        <v>34.47911384620038</v>
+        <v>22.83534753092613</v>
       </c>
       <c r="P10" t="n">
-        <v>45.21850996223</v>
+        <v>34.02692874657805</v>
       </c>
       <c r="Q10" t="n">
-        <v>45.21850996223</v>
+        <v>45.21850996222997</v>
       </c>
       <c r="R10" t="n">
-        <v>33.79969431520222</v>
+        <v>33.7996943152022</v>
       </c>
       <c r="S10" t="n">
-        <v>33.79969431520222</v>
+        <v>23.74200149330014</v>
       </c>
       <c r="T10" t="n">
-        <v>33.79969431520222</v>
+        <v>23.74200149330014</v>
       </c>
       <c r="U10" t="n">
-        <v>33.79969431520222</v>
+        <v>23.74200149330014</v>
       </c>
       <c r="V10" t="n">
-        <v>33.79969431520222</v>
+        <v>23.74200149330014</v>
       </c>
       <c r="W10" t="n">
-        <v>33.79969431520222</v>
+        <v>23.74200149330014</v>
       </c>
       <c r="X10" t="n">
-        <v>33.79969431520222</v>
+        <v>12.32318584627237</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.38087866817445</v>
+        <v>0.9043701992445995</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.0855695587735</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="C11" t="n">
-        <v>95.0855695587735</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="D11" t="n">
-        <v>95.0855695587735</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="E11" t="n">
-        <v>95.0855695587735</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="F11" t="n">
-        <v>95.0855695587735</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="G11" t="n">
-        <v>36.27616607839228</v>
+        <v>316.2519252281125</v>
       </c>
       <c r="H11" t="n">
         <v>36.27616607839228</v>
@@ -5050,7 +5050,7 @@
         <v>598.9981372303101</v>
       </c>
       <c r="M11" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103484</v>
       </c>
       <c r="N11" t="n">
         <v>1131.245262923652</v>
@@ -5083,10 +5083,10 @@
         <v>920.2712038954132</v>
       </c>
       <c r="X11" t="n">
-        <v>920.2712038954132</v>
+        <v>741.3761070387122</v>
       </c>
       <c r="Y11" t="n">
-        <v>514.9339338503036</v>
+        <v>741.3761070387122</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K12" t="n">
-        <v>559.2924683663467</v>
+        <v>628.9641045014104</v>
       </c>
       <c r="L12" t="n">
-        <v>735.9313191969957</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M12" t="n">
-        <v>945.2060176780107</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N12" t="n">
-        <v>1162.360999510327</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O12" t="n">
-        <v>1357.404666497813</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P12" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.905125453736</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.104676471574</v>
+        <v>318.0300976061421</v>
       </c>
       <c r="C13" t="n">
-        <v>173.104676471574</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="D13" t="n">
-        <v>173.104676471574</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="E13" t="n">
-        <v>173.104676471574</v>
+        <v>208.1379403038318</v>
       </c>
       <c r="F13" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G13" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H13" t="n">
         <v>36.27616607839228</v>
@@ -5205,13 +5205,13 @@
         <v>463.838861142204</v>
       </c>
       <c r="L13" t="n">
-        <v>556.9154193001993</v>
+        <v>912.7564163623085</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.832974520304</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N13" t="n">
-        <v>1102.831680612252</v>
+        <v>1465.456108010032</v>
       </c>
       <c r="O13" t="n">
         <v>1551.749235832356</v>
@@ -5226,25 +5226,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S13" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T13" t="n">
-        <v>1478.71691407298</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U13" t="n">
-        <v>1198.575212555485</v>
+        <v>1533.666602402119</v>
       </c>
       <c r="V13" t="n">
-        <v>916.8637451635138</v>
+        <v>1251.955135010148</v>
       </c>
       <c r="W13" t="n">
-        <v>642.0113413360269</v>
+        <v>977.1027311826606</v>
       </c>
       <c r="X13" t="n">
-        <v>399.447444781832</v>
+        <v>734.5388346284657</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.104676471574</v>
+        <v>508.1960663182077</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>988.6226695829744</v>
+        <v>463.1768960650922</v>
       </c>
       <c r="C14" t="n">
-        <v>561.7219395962745</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="D14" t="n">
-        <v>138.4293187812748</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="E14" t="n">
-        <v>138.4293187812748</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="F14" t="n">
-        <v>138.4293187812748</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G14" t="n">
         <v>36.27616607839228</v>
@@ -5275,19 +5275,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I14" t="n">
-        <v>68.08893453872668</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J14" t="n">
-        <v>184.296341114908</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K14" t="n">
         <v>366.7061291250299</v>
       </c>
       <c r="L14" t="n">
-        <v>598.9981372303101</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M14" t="n">
-        <v>862.6140377103479</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N14" t="n">
         <v>1131.245262923652</v>
@@ -5305,25 +5305,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.808303919614</v>
+        <v>1636.906024930026</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.808303919614</v>
+        <v>1636.906024930026</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.808303919614</v>
+        <v>1279.416610056275</v>
       </c>
       <c r="W14" t="n">
-        <v>1813.808303919614</v>
+        <v>883.0252603566223</v>
       </c>
       <c r="X14" t="n">
-        <v>1813.808303919614</v>
+        <v>883.0252603566223</v>
       </c>
       <c r="Y14" t="n">
-        <v>1408.471033874504</v>
+        <v>883.0252603566223</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.4367873432373</v>
+        <v>593.4367873432374</v>
       </c>
       <c r="C15" t="n">
-        <v>475.930883860742</v>
+        <v>475.9308838607421</v>
       </c>
       <c r="D15" t="n">
-        <v>372.0909253760271</v>
+        <v>372.090925376027</v>
       </c>
       <c r="E15" t="n">
         <v>267.3889916489643</v>
@@ -5360,49 +5360,49 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K15" t="n">
-        <v>628.9641045014106</v>
+        <v>559.2924683663467</v>
       </c>
       <c r="L15" t="n">
-        <v>805.6029553320595</v>
+        <v>735.9313191969957</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.877653813075</v>
+        <v>945.2060176780108</v>
       </c>
       <c r="N15" t="n">
-        <v>1232.032635645391</v>
+        <v>1162.360999510327</v>
       </c>
       <c r="O15" t="n">
-        <v>1427.076302632877</v>
+        <v>1357.404666497814</v>
       </c>
       <c r="P15" t="n">
-        <v>1580.47441747923</v>
+        <v>1510.802781344166</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.905125453736</v>
       </c>
       <c r="R15" t="n">
-        <v>1813.808303919613</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="S15" t="n">
-        <v>1749.84732951033</v>
+        <v>1749.847329510331</v>
       </c>
       <c r="T15" t="n">
-        <v>1611.735244555134</v>
+        <v>1611.735244555135</v>
       </c>
       <c r="U15" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V15" t="n">
-        <v>1222.055408810127</v>
+        <v>1222.055408810128</v>
       </c>
       <c r="W15" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X15" t="n">
-        <v>862.0566854100076</v>
+        <v>862.0566854100077</v>
       </c>
       <c r="Y15" t="n">
-        <v>722.3637967633</v>
+        <v>722.3637967633001</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.8832665156085</v>
+        <v>861.2233519654872</v>
       </c>
       <c r="C16" t="n">
-        <v>707.9107033945245</v>
+        <v>689.2507888444031</v>
       </c>
       <c r="D16" t="n">
-        <v>544.5939305212952</v>
+        <v>525.9340159711738</v>
       </c>
       <c r="E16" t="n">
-        <v>378.3857246741487</v>
+        <v>510.4397257291076</v>
       </c>
       <c r="F16" t="n">
-        <v>206.5239504487091</v>
+        <v>338.577951503668</v>
       </c>
       <c r="G16" t="n">
-        <v>41.05067541661512</v>
+        <v>173.104676471574</v>
       </c>
       <c r="H16" t="n">
         <v>36.27616607839228</v>
@@ -5442,46 +5442,46 @@
         <v>463.838861142204</v>
       </c>
       <c r="L16" t="n">
-        <v>556.3346842424261</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.25223946253</v>
+        <v>1010.809763939928</v>
       </c>
       <c r="N16" t="n">
-        <v>1102.250945554478</v>
+        <v>1107.808470031875</v>
       </c>
       <c r="O16" t="n">
-        <v>1238.993031259049</v>
+        <v>1390.366528636947</v>
       </c>
       <c r="P16" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q16" t="n">
         <v>1813.808303919614</v>
       </c>
       <c r="R16" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="S16" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="T16" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="U16" t="n">
-        <v>1813.808303919614</v>
+        <v>1802.007452933977</v>
       </c>
       <c r="V16" t="n">
-        <v>1813.808303919614</v>
+        <v>1520.295985542006</v>
       </c>
       <c r="W16" t="n">
-        <v>1538.955900092127</v>
+        <v>1520.295985542006</v>
       </c>
       <c r="X16" t="n">
-        <v>1296.392003537932</v>
+        <v>1277.732088987811</v>
       </c>
       <c r="Y16" t="n">
-        <v>1070.049235227674</v>
+        <v>1051.389320677553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>36.27616607839228</v>
+        <v>476.0319990244008</v>
       </c>
       <c r="C17" t="n">
-        <v>36.27616607839228</v>
+        <v>476.0319990244008</v>
       </c>
       <c r="D17" t="n">
-        <v>36.27616607839228</v>
+        <v>52.73937820940102</v>
       </c>
       <c r="E17" t="n">
-        <v>36.27616607839228</v>
+        <v>52.73937820940102</v>
       </c>
       <c r="F17" t="n">
         <v>36.27616607839228</v>
@@ -5512,19 +5512,19 @@
         <v>36.27616607839228</v>
       </c>
       <c r="I17" t="n">
-        <v>68.08893453872633</v>
+        <v>68.08893453872679</v>
       </c>
       <c r="J17" t="n">
-        <v>184.2963411149077</v>
+        <v>184.2963411149079</v>
       </c>
       <c r="K17" t="n">
-        <v>366.7061291250296</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L17" t="n">
-        <v>598.9981372303099</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M17" t="n">
-        <v>862.6140377103477</v>
+        <v>862.6140377103482</v>
       </c>
       <c r="N17" t="n">
         <v>1131.245262923652</v>
@@ -5542,25 +5542,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S17" t="n">
-        <v>1813.808303919614</v>
+        <v>1749.253343642253</v>
       </c>
       <c r="T17" t="n">
-        <v>1813.808303919614</v>
+        <v>1535.975759145523</v>
       </c>
       <c r="U17" t="n">
-        <v>1813.808303919614</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="V17" t="n">
-        <v>1456.318889045863</v>
+        <v>1277.760618769164</v>
       </c>
       <c r="W17" t="n">
-        <v>1059.92753934621</v>
+        <v>881.3692690695104</v>
       </c>
       <c r="X17" t="n">
-        <v>648.2075405139576</v>
+        <v>881.3692690695104</v>
       </c>
       <c r="Y17" t="n">
-        <v>242.8702704688479</v>
+        <v>476.0319990244008</v>
       </c>
     </row>
     <row r="18">
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>593.4367873432374</v>
+        <v>593.4367873432373</v>
       </c>
       <c r="C18" t="n">
-        <v>475.9308838607421</v>
+        <v>475.930883860742</v>
       </c>
       <c r="D18" t="n">
-        <v>372.090925376027</v>
+        <v>372.0909253760271</v>
       </c>
       <c r="E18" t="n">
         <v>267.3889916489643</v>
@@ -5594,52 +5594,52 @@
         <v>75.26691519968659</v>
       </c>
       <c r="J18" t="n">
-        <v>148.7086316845728</v>
+        <v>433.5238427951067</v>
       </c>
       <c r="K18" t="n">
-        <v>274.4772572558128</v>
+        <v>628.9641045014104</v>
       </c>
       <c r="L18" t="n">
-        <v>451.1161080864617</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M18" t="n">
-        <v>660.3908065674767</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N18" t="n">
-        <v>877.5457883997929</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O18" t="n">
-        <v>1072.589455387279</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P18" t="n">
-        <v>1225.987570233632</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q18" t="n">
-        <v>1674.905125453737</v>
+        <v>1674.905125453736</v>
       </c>
       <c r="R18" t="n">
-        <v>1813.808303919614</v>
+        <v>1813.808303919613</v>
       </c>
       <c r="S18" t="n">
-        <v>1749.847329510331</v>
+        <v>1749.84732951033</v>
       </c>
       <c r="T18" t="n">
-        <v>1611.735244555135</v>
+        <v>1611.735244555134</v>
       </c>
       <c r="U18" t="n">
         <v>1427.028547670861</v>
       </c>
       <c r="V18" t="n">
-        <v>1222.055408810128</v>
+        <v>1222.055408810127</v>
       </c>
       <c r="W18" t="n">
         <v>1025.534031643345</v>
       </c>
       <c r="X18" t="n">
-        <v>862.0566854100077</v>
+        <v>862.0566854100076</v>
       </c>
       <c r="Y18" t="n">
-        <v>722.3637967633001</v>
+        <v>722.3637967633</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>619.782081184194</v>
+        <v>545.5837784570099</v>
       </c>
       <c r="C19" t="n">
-        <v>619.782081184194</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="D19" t="n">
-        <v>619.782081184194</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="E19" t="n">
-        <v>453.5738753370475</v>
+        <v>373.6112153359259</v>
       </c>
       <c r="F19" t="n">
-        <v>281.7121011116079</v>
+        <v>201.7494411104863</v>
       </c>
       <c r="G19" t="n">
-        <v>173.104676471574</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H19" t="n">
         <v>36.27616607839228</v>
@@ -5679,16 +5679,16 @@
         <v>463.838861142204</v>
       </c>
       <c r="L19" t="n">
-        <v>758.1571395025708</v>
+        <v>912.7564163623084</v>
       </c>
       <c r="M19" t="n">
-        <v>1207.074694722675</v>
+        <v>1361.673971582413</v>
       </c>
       <c r="N19" t="n">
-        <v>1304.073400814623</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O19" t="n">
-        <v>1390.366528636948</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P19" t="n">
         <v>1773.863841351391</v>
@@ -5700,25 +5700,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S19" t="n">
-        <v>1657.330917251774</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="T19" t="n">
-        <v>1417.340083083371</v>
+        <v>1813.808303919614</v>
       </c>
       <c r="U19" t="n">
-        <v>1137.198381565876</v>
+        <v>1571.054314540921</v>
       </c>
       <c r="V19" t="n">
-        <v>1137.198381565876</v>
+        <v>1289.34284714895</v>
       </c>
       <c r="W19" t="n">
-        <v>862.3459777383889</v>
+        <v>1014.490443321463</v>
       </c>
       <c r="X19" t="n">
-        <v>619.782081184194</v>
+        <v>771.9265467672678</v>
       </c>
       <c r="Y19" t="n">
-        <v>619.782081184194</v>
+        <v>545.5837784570099</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1571.721544637155</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="C20" t="n">
-        <v>1144.820814650455</v>
+        <v>1310.669908556134</v>
       </c>
       <c r="D20" t="n">
-        <v>1144.820814650455</v>
+        <v>887.3772877411345</v>
       </c>
       <c r="E20" t="n">
-        <v>718.8438747983129</v>
+        <v>461.4003478889921</v>
       </c>
       <c r="F20" t="n">
-        <v>718.8438747983129</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="G20" t="n">
-        <v>316.2519252281125</v>
+        <v>36.27616607839228</v>
       </c>
       <c r="H20" t="n">
         <v>36.27616607839228</v>
@@ -5752,13 +5752,13 @@
         <v>68.08893453872679</v>
       </c>
       <c r="J20" t="n">
-        <v>184.2963411149083</v>
+        <v>184.296341114908</v>
       </c>
       <c r="K20" t="n">
-        <v>366.70612912503</v>
+        <v>366.7061291250299</v>
       </c>
       <c r="L20" t="n">
-        <v>598.9981372303107</v>
+        <v>598.9981372303102</v>
       </c>
       <c r="M20" t="n">
         <v>862.6140377103484</v>
@@ -5785,19 +5785,19 @@
         <v>1813.808303919614</v>
       </c>
       <c r="U20" t="n">
-        <v>1571.721544637155</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="V20" t="n">
-        <v>1571.721544637155</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="W20" t="n">
-        <v>1571.721544637155</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="X20" t="n">
-        <v>1571.721544637155</v>
+        <v>1737.570638542834</v>
       </c>
       <c r="Y20" t="n">
-        <v>1571.721544637155</v>
+        <v>1737.570638542834</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>433.5238427951067</v>
       </c>
       <c r="K21" t="n">
-        <v>559.2924683663467</v>
+        <v>628.9641045014104</v>
       </c>
       <c r="L21" t="n">
-        <v>735.9313191969957</v>
+        <v>805.6029553320593</v>
       </c>
       <c r="M21" t="n">
-        <v>945.2060176780108</v>
+        <v>1014.877653813074</v>
       </c>
       <c r="N21" t="n">
-        <v>1162.360999510327</v>
+        <v>1232.032635645391</v>
       </c>
       <c r="O21" t="n">
-        <v>1357.404666497814</v>
+        <v>1427.076302632877</v>
       </c>
       <c r="P21" t="n">
-        <v>1510.802781344166</v>
+        <v>1580.47441747923</v>
       </c>
       <c r="Q21" t="n">
         <v>1674.905125453736</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>441.6944124557974</v>
+        <v>412.6221814180445</v>
       </c>
       <c r="C22" t="n">
-        <v>269.7218493347134</v>
+        <v>412.6221814180445</v>
       </c>
       <c r="D22" t="n">
-        <v>106.4050764614841</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="E22" t="n">
-        <v>106.4050764614841</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="F22" t="n">
-        <v>106.4050764614841</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="G22" t="n">
-        <v>36.27616607839228</v>
+        <v>249.3054085448152</v>
       </c>
       <c r="H22" t="n">
-        <v>36.27616607839228</v>
+        <v>112.4768981516335</v>
       </c>
       <c r="I22" t="n">
         <v>36.27616607839228</v>
@@ -5922,13 +5922,13 @@
         <v>1361.673971582413</v>
       </c>
       <c r="N22" t="n">
-        <v>1458.672677674361</v>
+        <v>1616.829605387931</v>
       </c>
       <c r="O22" t="n">
-        <v>1551.749235832356</v>
+        <v>1703.122733210255</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.490343973492</v>
+        <v>1773.863841351391</v>
       </c>
       <c r="Q22" t="n">
         <v>1813.808303919614</v>
@@ -5937,25 +5937,25 @@
         <v>1813.808303919614</v>
       </c>
       <c r="S22" t="n">
-        <v>1657.330917251774</v>
+        <v>1665.836491177321</v>
       </c>
       <c r="T22" t="n">
-        <v>1657.330917251774</v>
+        <v>1665.836491177321</v>
       </c>
       <c r="U22" t="n">
-        <v>1657.330917251774</v>
+        <v>1385.694789659826</v>
       </c>
       <c r="V22" t="n">
-        <v>1375.619449859803</v>
+        <v>1103.983322267855</v>
       </c>
       <c r="W22" t="n">
-        <v>1100.767046032316</v>
+        <v>829.1309184403681</v>
       </c>
       <c r="X22" t="n">
-        <v>858.203149478121</v>
+        <v>829.1309184403681</v>
       </c>
       <c r="Y22" t="n">
-        <v>631.860381167863</v>
+        <v>602.7881501301101</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>724.3077437055715</v>
+        <v>1836.320358570604</v>
       </c>
       <c r="C23" t="n">
-        <v>724.3077437055715</v>
+        <v>1409.419628583904</v>
       </c>
       <c r="D23" t="n">
-        <v>724.3077437055715</v>
+        <v>986.1270077689044</v>
       </c>
       <c r="E23" t="n">
-        <v>724.3077437055715</v>
+        <v>560.1500679167619</v>
       </c>
       <c r="F23" t="n">
-        <v>724.3077437055715</v>
+        <v>135.0258861061621</v>
       </c>
       <c r="G23" t="n">
-        <v>322.1154212771288</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="H23" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I23" t="n">
-        <v>93.1451455907652</v>
+        <v>93.14514559076508</v>
       </c>
       <c r="J23" t="n">
         <v>242.5954409926549</v>
@@ -6004,10 +6004,10 @@
         <v>1439.838116296874</v>
       </c>
       <c r="O23" t="n">
-        <v>1757.324742125325</v>
+        <v>1757.324742125326</v>
       </c>
       <c r="P23" t="n">
-        <v>2022.68581931764</v>
+        <v>2022.685819317641</v>
       </c>
       <c r="Q23" t="n">
         <v>2214.13286573389</v>
@@ -6016,25 +6016,25 @@
         <v>2311.617179646692</v>
       </c>
       <c r="S23" t="n">
-        <v>2311.617179646692</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="T23" t="n">
-        <v>2100.088962963006</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="U23" t="n">
-        <v>1841.905792757987</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="V23" t="n">
-        <v>1532.419092237477</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="W23" t="n">
-        <v>1136.027742537824</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="X23" t="n">
-        <v>724.3077437055715</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="Y23" t="n">
-        <v>724.3077437055715</v>
+        <v>2256.168722862134</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>181.4204744957056</v>
       </c>
       <c r="G24" t="n">
-        <v>88.51530986505762</v>
+        <v>88.51530986505765</v>
       </c>
       <c r="H24" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I24" t="n">
-        <v>68.98105121487158</v>
+        <v>68.98105121487163</v>
       </c>
       <c r="J24" t="n">
-        <v>294.8952038232828</v>
+        <v>294.8952038232827</v>
       </c>
       <c r="K24" t="n">
-        <v>454.5038787438095</v>
+        <v>454.5038787438094</v>
       </c>
       <c r="L24" t="n">
-        <v>676.644852046046</v>
+        <v>676.6448520460459</v>
       </c>
       <c r="M24" t="n">
-        <v>939.0183812549393</v>
+        <v>939.0183812549392</v>
       </c>
       <c r="N24" t="n">
         <v>1210.677561863999</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1020.120410828629</v>
+        <v>839.7791871073131</v>
       </c>
       <c r="C25" t="n">
-        <v>848.1478477075448</v>
+        <v>839.7791871073131</v>
       </c>
       <c r="D25" t="n">
-        <v>684.8310748343155</v>
+        <v>676.4624142340838</v>
       </c>
       <c r="E25" t="n">
-        <v>518.622868987169</v>
+        <v>510.2542083869373</v>
       </c>
       <c r="F25" t="n">
-        <v>346.7610947617295</v>
+        <v>338.3924341614977</v>
       </c>
       <c r="G25" t="n">
-        <v>181.4670787077722</v>
+        <v>173.0984181075405</v>
       </c>
       <c r="H25" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I25" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="J25" t="n">
         <v>170.4496866187611</v>
       </c>
       <c r="K25" t="n">
-        <v>506.6286275655436</v>
+        <v>506.6286275655438</v>
       </c>
       <c r="L25" t="n">
         <v>1001.633912093409</v>
@@ -6159,13 +6159,13 @@
         <v>1127.227736080738</v>
       </c>
       <c r="N25" t="n">
-        <v>1251.112067609364</v>
+        <v>1251.112067609365</v>
       </c>
       <c r="O25" t="n">
-        <v>1700.841005381729</v>
+        <v>1739.940746390241</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.587433572295</v>
+        <v>2105.587433572296</v>
       </c>
       <c r="Q25" t="n">
         <v>2311.617179646692</v>
@@ -6174,25 +6174,25 @@
         <v>2311.617179646692</v>
       </c>
       <c r="S25" t="n">
-        <v>2311.617179646692</v>
+        <v>2158.263788079654</v>
       </c>
       <c r="T25" t="n">
-        <v>2311.617179646692</v>
+        <v>1919.038878636018</v>
       </c>
       <c r="U25" t="n">
-        <v>2235.756915624605</v>
+        <v>1638.906954880966</v>
       </c>
       <c r="V25" t="n">
-        <v>1954.045448232634</v>
+        <v>1357.195487488995</v>
       </c>
       <c r="W25" t="n">
-        <v>1679.193044405147</v>
+        <v>1082.343083661508</v>
       </c>
       <c r="X25" t="n">
-        <v>1436.629147850952</v>
+        <v>839.7791871073131</v>
       </c>
       <c r="Y25" t="n">
-        <v>1210.286379540694</v>
+        <v>839.7791871073131</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>620.8565725677715</v>
+        <v>1836.320358570604</v>
       </c>
       <c r="C26" t="n">
-        <v>620.8565725677715</v>
+        <v>1409.419628583904</v>
       </c>
       <c r="D26" t="n">
-        <v>620.8565725677715</v>
+        <v>986.1270077689039</v>
       </c>
       <c r="E26" t="n">
-        <v>620.8565725677715</v>
+        <v>560.1500679167615</v>
       </c>
       <c r="F26" t="n">
-        <v>195.7323907571717</v>
+        <v>135.0258861061617</v>
       </c>
       <c r="G26" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293384</v>
       </c>
       <c r="H26" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293384</v>
       </c>
       <c r="I26" t="n">
         <v>93.14514559076497</v>
@@ -6229,10 +6229,10 @@
         <v>242.5954409926549</v>
       </c>
       <c r="K26" t="n">
-        <v>474.8277020225646</v>
+        <v>474.8277020225644</v>
       </c>
       <c r="L26" t="n">
-        <v>768.9288935133201</v>
+        <v>768.9288935133202</v>
       </c>
       <c r="M26" t="n">
         <v>1101.319419864339</v>
@@ -6241,10 +6241,10 @@
         <v>1439.838116296874</v>
       </c>
       <c r="O26" t="n">
-        <v>1757.324742125325</v>
+        <v>1757.324742125326</v>
       </c>
       <c r="P26" t="n">
-        <v>2022.68581931764</v>
+        <v>2022.685819317641</v>
       </c>
       <c r="Q26" t="n">
         <v>2214.13286573389</v>
@@ -6253,25 +6253,25 @@
         <v>2311.617179646692</v>
       </c>
       <c r="S26" t="n">
-        <v>2256.168722862133</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="T26" t="n">
-        <v>2044.640506178447</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="U26" t="n">
-        <v>1786.457335973428</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="V26" t="n">
-        <v>1428.967921099677</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="W26" t="n">
-        <v>1032.576571400024</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="X26" t="n">
-        <v>620.8565725677715</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="Y26" t="n">
-        <v>620.8565725677715</v>
+        <v>2256.168722862134</v>
       </c>
     </row>
     <row r="27">
@@ -6296,25 +6296,25 @@
         <v>181.4204744957056</v>
       </c>
       <c r="G27" t="n">
-        <v>88.51530986505762</v>
+        <v>88.51530986505763</v>
       </c>
       <c r="H27" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293384</v>
       </c>
       <c r="I27" t="n">
-        <v>68.98105121487158</v>
+        <v>68.98105121487161</v>
       </c>
       <c r="J27" t="n">
-        <v>294.8952038232828</v>
+        <v>294.8952038232827</v>
       </c>
       <c r="K27" t="n">
-        <v>454.5038787438095</v>
+        <v>454.5038787438094</v>
       </c>
       <c r="L27" t="n">
-        <v>676.644852046046</v>
+        <v>676.6448520460459</v>
       </c>
       <c r="M27" t="n">
-        <v>939.0183812549393</v>
+        <v>939.0183812549392</v>
       </c>
       <c r="N27" t="n">
         <v>1210.677561863999</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>423.2704500849886</v>
+        <v>576.6238416520273</v>
       </c>
       <c r="C28" t="n">
-        <v>280.3590421787094</v>
+        <v>404.6512785309433</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0422693054802</v>
+        <v>404.6512785309433</v>
       </c>
       <c r="E28" t="n">
-        <v>117.0422693054802</v>
+        <v>252.2770044203185</v>
       </c>
       <c r="F28" t="n">
-        <v>117.0422693054802</v>
+        <v>252.2770044203185</v>
       </c>
       <c r="G28" t="n">
-        <v>117.0422693054802</v>
+        <v>252.2770044203185</v>
       </c>
       <c r="H28" t="n">
-        <v>117.0422693054802</v>
+        <v>117.0422693054801</v>
       </c>
       <c r="I28" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293384</v>
       </c>
       <c r="J28" t="n">
-        <v>131.3499456102501</v>
+        <v>92.52796997054023</v>
       </c>
       <c r="K28" t="n">
-        <v>467.5288865570326</v>
+        <v>181.4243018033008</v>
       </c>
       <c r="L28" t="n">
-        <v>962.534171084898</v>
+        <v>676.4295863311662</v>
       </c>
       <c r="M28" t="n">
-        <v>1088.127995072227</v>
+        <v>1215.558890781317</v>
       </c>
       <c r="N28" t="n">
-        <v>1212.012326600853</v>
+        <v>1737.476145151824</v>
       </c>
       <c r="O28" t="n">
-        <v>1700.841005381729</v>
+        <v>2164.970707332936</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.587433572295</v>
+        <v>2256.960930950195</v>
       </c>
       <c r="Q28" t="n">
         <v>2311.617179646692</v>
@@ -6411,25 +6411,25 @@
         <v>2311.617179646692</v>
       </c>
       <c r="S28" t="n">
-        <v>2158.263788079653</v>
+        <v>2311.617179646692</v>
       </c>
       <c r="T28" t="n">
-        <v>1919.038878636017</v>
+        <v>2072.392270203055</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.906954880965</v>
+        <v>1792.260346448004</v>
       </c>
       <c r="V28" t="n">
-        <v>1357.195487488994</v>
+        <v>1510.548879056033</v>
       </c>
       <c r="W28" t="n">
-        <v>1082.343083661507</v>
+        <v>1235.696475228546</v>
       </c>
       <c r="X28" t="n">
-        <v>839.7791871073122</v>
+        <v>993.1325786743508</v>
       </c>
       <c r="Y28" t="n">
-        <v>613.4364187970542</v>
+        <v>766.7898103640929</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1695.944594567922</v>
+        <v>1836.320358570604</v>
       </c>
       <c r="C29" t="n">
-        <v>1269.043864581222</v>
+        <v>1409.419628583904</v>
       </c>
       <c r="D29" t="n">
-        <v>1269.043864581222</v>
+        <v>986.1270077689044</v>
       </c>
       <c r="E29" t="n">
-        <v>1149.431925516171</v>
+        <v>560.1500679167619</v>
       </c>
       <c r="F29" t="n">
-        <v>724.3077437055715</v>
+        <v>135.0258861061621</v>
       </c>
       <c r="G29" t="n">
-        <v>322.1154212771288</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="H29" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I29" t="n">
-        <v>93.14514559076497</v>
+        <v>93.14514559076542</v>
       </c>
       <c r="J29" t="n">
-        <v>242.5954409926549</v>
+        <v>242.5954409926555</v>
       </c>
       <c r="K29" t="n">
-        <v>474.8277020225646</v>
+        <v>474.8277020225651</v>
       </c>
       <c r="L29" t="n">
-        <v>768.92889351332</v>
+        <v>768.9288935133208</v>
       </c>
       <c r="M29" t="n">
         <v>1101.319419864339</v>
@@ -6478,10 +6478,10 @@
         <v>1439.838116296874</v>
       </c>
       <c r="O29" t="n">
-        <v>1757.324742125325</v>
+        <v>1757.324742125326</v>
       </c>
       <c r="P29" t="n">
-        <v>2022.68581931764</v>
+        <v>2022.685819317641</v>
       </c>
       <c r="Q29" t="n">
         <v>2214.13286573389</v>
@@ -6490,25 +6490,25 @@
         <v>2311.617179646692</v>
       </c>
       <c r="S29" t="n">
-        <v>2311.617179646692</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="T29" t="n">
-        <v>2311.617179646692</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="U29" t="n">
-        <v>2053.434009441673</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="V29" t="n">
-        <v>1695.944594567922</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="W29" t="n">
-        <v>1695.944594567922</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="X29" t="n">
-        <v>1695.944594567922</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="Y29" t="n">
-        <v>1695.944594567922</v>
+        <v>2256.168722862134</v>
       </c>
     </row>
     <row r="30">
@@ -6533,37 +6533,37 @@
         <v>181.4204744957056</v>
       </c>
       <c r="G30" t="n">
-        <v>88.51530986505762</v>
+        <v>88.51530986505765</v>
       </c>
       <c r="H30" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I30" t="n">
-        <v>68.98105121487158</v>
+        <v>92.43835705928346</v>
       </c>
       <c r="J30" t="n">
-        <v>294.8952038232828</v>
+        <v>178.3920290331171</v>
       </c>
       <c r="K30" t="n">
-        <v>454.5038787438095</v>
+        <v>338.0007039536438</v>
       </c>
       <c r="L30" t="n">
-        <v>676.644852046046</v>
+        <v>560.1416772558804</v>
       </c>
       <c r="M30" t="n">
-        <v>939.0183812549393</v>
+        <v>822.5152064647737</v>
       </c>
       <c r="N30" t="n">
-        <v>1210.677561863999</v>
+        <v>1094.174387073833</v>
       </c>
       <c r="O30" t="n">
-        <v>1455.581922472659</v>
+        <v>1339.078747682493</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.997639746402</v>
+        <v>1543.542139461497</v>
       </c>
       <c r="Q30" t="n">
-        <v>1770.179055172945</v>
+        <v>1664.723554888039</v>
       </c>
       <c r="R30" t="n">
         <v>1816.638106865841</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1090.930336541175</v>
+        <v>719.5916596598332</v>
       </c>
       <c r="C31" t="n">
-        <v>918.9577734200911</v>
+        <v>547.6190965387492</v>
       </c>
       <c r="D31" t="n">
-        <v>755.6410005468618</v>
+        <v>384.3023236655199</v>
       </c>
       <c r="E31" t="n">
-        <v>589.4327946997154</v>
+        <v>218.0941178183734</v>
       </c>
       <c r="F31" t="n">
-        <v>417.5710204742758</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="G31" t="n">
-        <v>252.2770044203186</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="H31" t="n">
-        <v>117.0422693054802</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I31" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="J31" t="n">
-        <v>170.4496866187611</v>
+        <v>92.52796997054025</v>
       </c>
       <c r="K31" t="n">
-        <v>506.6286275655436</v>
+        <v>181.4243018033008</v>
       </c>
       <c r="L31" t="n">
-        <v>1001.633912093409</v>
+        <v>676.4295863311662</v>
       </c>
       <c r="M31" t="n">
-        <v>1127.227736080738</v>
+        <v>1215.558890781317</v>
       </c>
       <c r="N31" t="n">
-        <v>1589.714650904057</v>
+        <v>1737.476145151824</v>
       </c>
       <c r="O31" t="n">
-        <v>1700.841005381729</v>
+        <v>2164.970707332937</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.587433572295</v>
+        <v>2256.960930950195</v>
       </c>
       <c r="Q31" t="n">
         <v>2311.617179646692</v>
       </c>
       <c r="R31" t="n">
-        <v>2307.876464168913</v>
+        <v>2311.617179646692</v>
       </c>
       <c r="S31" t="n">
-        <v>2307.876464168913</v>
+        <v>2158.263788079654</v>
       </c>
       <c r="T31" t="n">
-        <v>2307.876464168913</v>
+        <v>1933.64862081889</v>
       </c>
       <c r="U31" t="n">
-        <v>2306.566841337152</v>
+        <v>1653.516697063839</v>
       </c>
       <c r="V31" t="n">
-        <v>2024.855373945181</v>
+        <v>1653.516697063839</v>
       </c>
       <c r="W31" t="n">
-        <v>1750.002970117694</v>
+        <v>1378.664293236352</v>
       </c>
       <c r="X31" t="n">
-        <v>1507.439073563499</v>
+        <v>1136.100396682157</v>
       </c>
       <c r="Y31" t="n">
-        <v>1281.096305253241</v>
+        <v>909.7576283718988</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1028.209010038697</v>
+        <v>1321.549876205233</v>
       </c>
       <c r="C32" t="n">
-        <v>601.3082800519974</v>
+        <v>894.6491462185334</v>
       </c>
       <c r="D32" t="n">
-        <v>178.0156592369976</v>
+        <v>471.3565254035336</v>
       </c>
       <c r="E32" t="n">
-        <v>46.23234359293383</v>
+        <v>471.3565254035336</v>
       </c>
       <c r="F32" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="G32" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="H32" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I32" t="n">
-        <v>93.14514559076497</v>
+        <v>93.14514559076474</v>
       </c>
       <c r="J32" t="n">
-        <v>242.5954409926549</v>
+        <v>242.5954409926544</v>
       </c>
       <c r="K32" t="n">
-        <v>474.8277020225646</v>
+        <v>474.8277020225642</v>
       </c>
       <c r="L32" t="n">
-        <v>768.9288935133201</v>
+        <v>768.9288935133197</v>
       </c>
       <c r="M32" t="n">
-        <v>1101.319419864339</v>
+        <v>1101.319419864338</v>
       </c>
       <c r="N32" t="n">
         <v>1439.838116296874</v>
       </c>
       <c r="O32" t="n">
-        <v>1757.324742125325</v>
+        <v>1757.324742125326</v>
       </c>
       <c r="P32" t="n">
-        <v>2022.68581931764</v>
+        <v>2022.685819317641</v>
       </c>
       <c r="Q32" t="n">
         <v>2214.13286573389</v>
@@ -6727,25 +6727,25 @@
         <v>2311.617179646692</v>
       </c>
       <c r="S32" t="n">
-        <v>2256.168722862133</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="T32" t="n">
-        <v>2256.168722862133</v>
+        <v>2084.376561124093</v>
       </c>
       <c r="U32" t="n">
-        <v>2256.168722862133</v>
+        <v>2084.376561124093</v>
       </c>
       <c r="V32" t="n">
-        <v>2256.168722862133</v>
+        <v>1726.887146250343</v>
       </c>
       <c r="W32" t="n">
-        <v>1859.77737316248</v>
+        <v>1726.887146250343</v>
       </c>
       <c r="X32" t="n">
-        <v>1448.057374330227</v>
+        <v>1726.887146250343</v>
       </c>
       <c r="Y32" t="n">
-        <v>1448.057374330227</v>
+        <v>1321.549876205233</v>
       </c>
     </row>
     <row r="33">
@@ -6770,37 +6770,37 @@
         <v>181.4204744957056</v>
       </c>
       <c r="G33" t="n">
-        <v>88.51530986505762</v>
+        <v>88.51530986505765</v>
       </c>
       <c r="H33" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I33" t="n">
-        <v>68.98105121487158</v>
+        <v>92.43835705928346</v>
       </c>
       <c r="J33" t="n">
-        <v>294.8952038232828</v>
+        <v>189.4397035383768</v>
       </c>
       <c r="K33" t="n">
-        <v>454.5038787438095</v>
+        <v>349.0483784589036</v>
       </c>
       <c r="L33" t="n">
-        <v>676.644852046046</v>
+        <v>571.1893517611401</v>
       </c>
       <c r="M33" t="n">
-        <v>939.0183812549393</v>
+        <v>833.5628809700333</v>
       </c>
       <c r="N33" t="n">
-        <v>1210.677561863999</v>
+        <v>1105.222061579093</v>
       </c>
       <c r="O33" t="n">
-        <v>1455.581922472659</v>
+        <v>1350.126422187753</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.997639746402</v>
+        <v>1543.542139461497</v>
       </c>
       <c r="Q33" t="n">
-        <v>1770.179055172945</v>
+        <v>1664.723554888039</v>
       </c>
       <c r="R33" t="n">
         <v>1816.638106865841</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>518.622868987169</v>
+        <v>856.7557654070793</v>
       </c>
       <c r="C34" t="n">
-        <v>518.622868987169</v>
+        <v>684.7832022859952</v>
       </c>
       <c r="D34" t="n">
-        <v>518.622868987169</v>
+        <v>684.7832022859952</v>
       </c>
       <c r="E34" t="n">
-        <v>518.622868987169</v>
+        <v>518.5749964388488</v>
       </c>
       <c r="F34" t="n">
-        <v>346.7610947617295</v>
+        <v>346.7132222134092</v>
       </c>
       <c r="G34" t="n">
-        <v>181.4670787077722</v>
+        <v>252.2770044203186</v>
       </c>
       <c r="H34" t="n">
-        <v>46.23234359293383</v>
+        <v>117.0422693054802</v>
       </c>
       <c r="I34" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="J34" t="n">
         <v>170.4496866187611</v>
       </c>
       <c r="K34" t="n">
-        <v>259.3460184515216</v>
+        <v>506.6286275655438</v>
       </c>
       <c r="L34" t="n">
-        <v>754.351302979387</v>
+        <v>942.2035725462221</v>
       </c>
       <c r="M34" t="n">
-        <v>879.9451269667161</v>
+        <v>1067.797396533551</v>
       </c>
       <c r="N34" t="n">
-        <v>1401.862381337223</v>
+        <v>1589.714650904058</v>
       </c>
       <c r="O34" t="n">
-        <v>1890.691060118098</v>
+        <v>1700.84100538173</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.587433572295</v>
+        <v>2105.587433572296</v>
       </c>
       <c r="Q34" t="n">
         <v>2311.617179646692</v>
       </c>
       <c r="R34" t="n">
-        <v>2307.876464168913</v>
+        <v>2311.617179646692</v>
       </c>
       <c r="S34" t="n">
-        <v>2154.523072601875</v>
+        <v>2311.617179646692</v>
       </c>
       <c r="T34" t="n">
-        <v>1915.298163158238</v>
+        <v>2072.392270203056</v>
       </c>
       <c r="U34" t="n">
-        <v>1635.166239403187</v>
+        <v>2072.392270203056</v>
       </c>
       <c r="V34" t="n">
-        <v>1353.454772011216</v>
+        <v>1790.680802811085</v>
       </c>
       <c r="W34" t="n">
-        <v>1078.602368183729</v>
+        <v>1515.828398983598</v>
       </c>
       <c r="X34" t="n">
-        <v>836.0384716295338</v>
+        <v>1273.264502429403</v>
       </c>
       <c r="Y34" t="n">
-        <v>609.6957033192758</v>
+        <v>1046.921734119145</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>887.8332460360161</v>
+        <v>322.1154212771287</v>
       </c>
       <c r="C35" t="n">
-        <v>887.8332460360161</v>
+        <v>322.1154212771287</v>
       </c>
       <c r="D35" t="n">
-        <v>464.5406252210164</v>
+        <v>322.1154212771287</v>
       </c>
       <c r="E35" t="n">
-        <v>464.5406252210164</v>
+        <v>322.1154212771287</v>
       </c>
       <c r="F35" t="n">
-        <v>464.5406252210164</v>
+        <v>322.1154212771287</v>
       </c>
       <c r="G35" t="n">
-        <v>62.34830279257363</v>
+        <v>322.1154212771287</v>
       </c>
       <c r="H35" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I35" t="n">
-        <v>93.14514559076497</v>
+        <v>93.14514559076474</v>
       </c>
       <c r="J35" t="n">
-        <v>242.5954409926549</v>
+        <v>242.5954409926544</v>
       </c>
       <c r="K35" t="n">
-        <v>474.8277020225646</v>
+        <v>474.8277020225642</v>
       </c>
       <c r="L35" t="n">
-        <v>768.9288935133201</v>
+        <v>768.9288935133197</v>
       </c>
       <c r="M35" t="n">
-        <v>1101.319419864339</v>
+        <v>1101.319419864338</v>
       </c>
       <c r="N35" t="n">
         <v>1439.838116296874</v>
       </c>
       <c r="O35" t="n">
-        <v>1757.324742125325</v>
+        <v>1757.324742125326</v>
       </c>
       <c r="P35" t="n">
-        <v>2022.68581931764</v>
+        <v>2022.685819317641</v>
       </c>
       <c r="Q35" t="n">
         <v>2214.13286573389</v>
@@ -6967,22 +6967,22 @@
         <v>2311.617179646692</v>
       </c>
       <c r="T35" t="n">
-        <v>2311.617179646692</v>
+        <v>2100.088962963006</v>
       </c>
       <c r="U35" t="n">
-        <v>2053.434009441673</v>
+        <v>1841.905792757987</v>
       </c>
       <c r="V35" t="n">
-        <v>1695.944594567922</v>
+        <v>1484.416377884237</v>
       </c>
       <c r="W35" t="n">
-        <v>1299.553244868269</v>
+        <v>1153.683784400911</v>
       </c>
       <c r="X35" t="n">
-        <v>887.8332460360161</v>
+        <v>741.9637855686587</v>
       </c>
       <c r="Y35" t="n">
-        <v>887.8332460360161</v>
+        <v>741.9637855686587</v>
       </c>
     </row>
     <row r="36">
@@ -7007,37 +7007,37 @@
         <v>181.4204744957056</v>
       </c>
       <c r="G36" t="n">
-        <v>88.51530986505762</v>
+        <v>88.51530986505765</v>
       </c>
       <c r="H36" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I36" t="n">
-        <v>68.98105121487158</v>
+        <v>92.43835705928346</v>
       </c>
       <c r="J36" t="n">
-        <v>294.8952038232828</v>
+        <v>178.3920290331171</v>
       </c>
       <c r="K36" t="n">
-        <v>454.5038787438095</v>
+        <v>338.0007039536438</v>
       </c>
       <c r="L36" t="n">
-        <v>676.644852046046</v>
+        <v>560.1416772558804</v>
       </c>
       <c r="M36" t="n">
-        <v>939.0183812549393</v>
+        <v>822.5152064647737</v>
       </c>
       <c r="N36" t="n">
-        <v>1210.677561863999</v>
+        <v>1094.174387073833</v>
       </c>
       <c r="O36" t="n">
-        <v>1455.581922472659</v>
+        <v>1339.078747682493</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.997639746402</v>
+        <v>1532.494464956237</v>
       </c>
       <c r="Q36" t="n">
-        <v>1770.179055172945</v>
+        <v>1664.723554888039</v>
       </c>
       <c r="R36" t="n">
         <v>1816.638106865841</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>423.2704500849886</v>
+        <v>704.9819174769607</v>
       </c>
       <c r="C37" t="n">
-        <v>377.7345654940375</v>
+        <v>533.0093543558767</v>
       </c>
       <c r="D37" t="n">
-        <v>377.7345654940375</v>
+        <v>533.0093543558767</v>
       </c>
       <c r="E37" t="n">
-        <v>211.5263596468911</v>
+        <v>518.6228689871691</v>
       </c>
       <c r="F37" t="n">
-        <v>211.5263596468911</v>
+        <v>346.7610947617295</v>
       </c>
       <c r="G37" t="n">
-        <v>46.23234359293383</v>
+        <v>181.4670787077723</v>
       </c>
       <c r="H37" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I37" t="n">
-        <v>46.23234359293383</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="J37" t="n">
-        <v>170.4496866187611</v>
+        <v>92.52796997054025</v>
       </c>
       <c r="K37" t="n">
-        <v>506.6286275655436</v>
+        <v>183.7228742213957</v>
       </c>
       <c r="L37" t="n">
-        <v>1001.633912093409</v>
+        <v>302.3392651580962</v>
       </c>
       <c r="M37" t="n">
-        <v>1540.76321654356</v>
+        <v>841.468569608247</v>
       </c>
       <c r="N37" t="n">
-        <v>1664.647548072186</v>
+        <v>1363.385823978753</v>
       </c>
       <c r="O37" t="n">
-        <v>1775.773902549859</v>
+        <v>1852.214502759629</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.587433572295</v>
+        <v>2256.960930950195</v>
       </c>
       <c r="Q37" t="n">
         <v>2311.617179646692</v>
@@ -7122,25 +7122,25 @@
         <v>2311.617179646692</v>
       </c>
       <c r="S37" t="n">
-        <v>2158.263788079653</v>
+        <v>2158.263788079654</v>
       </c>
       <c r="T37" t="n">
-        <v>1919.038878636017</v>
+        <v>1919.038878636018</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.906954880965</v>
+        <v>1638.906954880966</v>
       </c>
       <c r="V37" t="n">
-        <v>1357.195487488994</v>
+        <v>1638.906954880966</v>
       </c>
       <c r="W37" t="n">
-        <v>1082.343083661507</v>
+        <v>1364.054551053479</v>
       </c>
       <c r="X37" t="n">
-        <v>839.7791871073122</v>
+        <v>1121.490654499284</v>
       </c>
       <c r="Y37" t="n">
-        <v>613.4364187970542</v>
+        <v>895.1478861890264</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1424.60035973835</v>
+        <v>1196.256932912352</v>
       </c>
       <c r="C38" t="n">
-        <v>997.69962975165</v>
+        <v>1196.256932912352</v>
       </c>
       <c r="D38" t="n">
-        <v>574.4070089366503</v>
+        <v>1196.256932912352</v>
       </c>
       <c r="E38" t="n">
-        <v>148.4300690845079</v>
+        <v>873.5488478319764</v>
       </c>
       <c r="F38" t="n">
-        <v>46.23234359293382</v>
+        <v>448.4246660213766</v>
       </c>
       <c r="G38" t="n">
-        <v>46.23234359293382</v>
+        <v>46.23234359293384</v>
       </c>
       <c r="H38" t="n">
-        <v>46.23234359293382</v>
+        <v>46.23234359293384</v>
       </c>
       <c r="I38" t="n">
-        <v>93.14514559076497</v>
+        <v>93.14514559076514</v>
       </c>
       <c r="J38" t="n">
-        <v>242.5954409926547</v>
+        <v>242.5954409926549</v>
       </c>
       <c r="K38" t="n">
-        <v>474.8277020225642</v>
+        <v>474.8277020225644</v>
       </c>
       <c r="L38" t="n">
-        <v>768.9288935133197</v>
+        <v>768.9288935133202</v>
       </c>
       <c r="M38" t="n">
-        <v>1101.319419864338</v>
+        <v>1101.319419864339</v>
       </c>
       <c r="N38" t="n">
-        <v>1439.838116296873</v>
+        <v>1439.838116296874</v>
       </c>
       <c r="O38" t="n">
-        <v>1757.324742125325</v>
+        <v>1757.324742125326</v>
       </c>
       <c r="P38" t="n">
-        <v>2022.685819317639</v>
+        <v>2022.685819317641</v>
       </c>
       <c r="Q38" t="n">
-        <v>2214.132865733889</v>
+        <v>2214.13286573389</v>
       </c>
       <c r="R38" t="n">
-        <v>2311.617179646691</v>
+        <v>2311.617179646692</v>
       </c>
       <c r="S38" t="n">
-        <v>2256.168722862133</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="T38" t="n">
-        <v>2256.168722862133</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="U38" t="n">
-        <v>2256.168722862133</v>
+        <v>1997.985552657115</v>
       </c>
       <c r="V38" t="n">
-        <v>2256.168722862133</v>
+        <v>1997.985552657115</v>
       </c>
       <c r="W38" t="n">
-        <v>2256.168722862133</v>
+        <v>1601.594202957461</v>
       </c>
       <c r="X38" t="n">
-        <v>1844.44872402988</v>
+        <v>1601.594202957461</v>
       </c>
       <c r="Y38" t="n">
-        <v>1844.44872402988</v>
+        <v>1196.256932912352</v>
       </c>
     </row>
     <row r="39">
@@ -7244,25 +7244,25 @@
         <v>181.4204744957056</v>
       </c>
       <c r="G39" t="n">
-        <v>88.51530986505762</v>
+        <v>88.51530986505763</v>
       </c>
       <c r="H39" t="n">
-        <v>46.23234359293382</v>
+        <v>46.23234359293384</v>
       </c>
       <c r="I39" t="n">
-        <v>92.43835705928342</v>
+        <v>92.43835705928345</v>
       </c>
       <c r="J39" t="n">
-        <v>178.392029033117</v>
+        <v>178.3920290331171</v>
       </c>
       <c r="K39" t="n">
         <v>338.0007039536438</v>
       </c>
       <c r="L39" t="n">
-        <v>560.1416772558803</v>
+        <v>560.1416772558804</v>
       </c>
       <c r="M39" t="n">
-        <v>822.5152064647734</v>
+        <v>822.5152064647737</v>
       </c>
       <c r="N39" t="n">
         <v>1094.174387073833</v>
@@ -7271,10 +7271,10 @@
         <v>1339.078747682493</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.997639746402</v>
+        <v>1532.494464956237</v>
       </c>
       <c r="Q39" t="n">
-        <v>1770.179055172945</v>
+        <v>1664.723554888039</v>
       </c>
       <c r="R39" t="n">
         <v>1816.638106865841</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1090.930336541175</v>
+        <v>572.8831261742489</v>
       </c>
       <c r="C40" t="n">
-        <v>918.9577734200911</v>
+        <v>572.8831261742489</v>
       </c>
       <c r="D40" t="n">
-        <v>755.6410005468618</v>
+        <v>572.8831261742489</v>
       </c>
       <c r="E40" t="n">
-        <v>589.4327946997154</v>
+        <v>454.198059584877</v>
       </c>
       <c r="F40" t="n">
-        <v>417.5710204742758</v>
+        <v>282.3362853594374</v>
       </c>
       <c r="G40" t="n">
-        <v>252.2770044203185</v>
+        <v>117.0422693054801</v>
       </c>
       <c r="H40" t="n">
         <v>117.0422693054801</v>
       </c>
       <c r="I40" t="n">
-        <v>46.23234359293382</v>
+        <v>46.23234359293384</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5279699705402</v>
+        <v>170.4496866187611</v>
       </c>
       <c r="K40" t="n">
-        <v>428.7069109173228</v>
+        <v>506.6286275655438</v>
       </c>
       <c r="L40" t="n">
-        <v>547.3233018540232</v>
+        <v>1001.633912093409</v>
       </c>
       <c r="M40" t="n">
-        <v>1086.452606304174</v>
+        <v>1540.76321654356</v>
       </c>
       <c r="N40" t="n">
-        <v>1589.714650904056</v>
+        <v>2053.844352855264</v>
       </c>
       <c r="O40" t="n">
-        <v>1700.841005381729</v>
+        <v>2164.970707332936</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.587433572295</v>
+        <v>2256.960930950195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2311.617179646691</v>
+        <v>2311.617179646692</v>
       </c>
       <c r="R40" t="n">
-        <v>2307.876464168913</v>
+        <v>2307.876464168914</v>
       </c>
       <c r="S40" t="n">
-        <v>2307.876464168913</v>
+        <v>2307.876464168914</v>
       </c>
       <c r="T40" t="n">
-        <v>2307.876464168913</v>
+        <v>2068.651554725277</v>
       </c>
       <c r="U40" t="n">
-        <v>2306.566841337152</v>
+        <v>1788.519630970226</v>
       </c>
       <c r="V40" t="n">
-        <v>2024.855373945181</v>
+        <v>1506.808163578254</v>
       </c>
       <c r="W40" t="n">
-        <v>1750.002970117694</v>
+        <v>1231.955759750767</v>
       </c>
       <c r="X40" t="n">
-        <v>1507.439073563499</v>
+        <v>989.3918631965724</v>
       </c>
       <c r="Y40" t="n">
-        <v>1281.096305253241</v>
+        <v>763.0490948863145</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1299.553244868269</v>
+        <v>1322.402634246776</v>
       </c>
       <c r="C41" t="n">
-        <v>1299.553244868269</v>
+        <v>895.501904260076</v>
       </c>
       <c r="D41" t="n">
-        <v>1299.553244868269</v>
+        <v>472.2092834450763</v>
       </c>
       <c r="E41" t="n">
-        <v>873.5763050161269</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="F41" t="n">
-        <v>448.4521232055271</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="G41" t="n">
-        <v>322.1154212771287</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="H41" t="n">
-        <v>46.23234359293384</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I41" t="n">
-        <v>93.14514559076508</v>
+        <v>93.1451455907652</v>
       </c>
       <c r="J41" t="n">
-        <v>242.5954409926549</v>
+        <v>242.595440992655</v>
       </c>
       <c r="K41" t="n">
-        <v>474.8277020225644</v>
+        <v>474.8277020225646</v>
       </c>
       <c r="L41" t="n">
-        <v>768.92889351332</v>
+        <v>768.9288935133201</v>
       </c>
       <c r="M41" t="n">
         <v>1101.319419864339</v>
@@ -7429,7 +7429,7 @@
         <v>1757.324742125326</v>
       </c>
       <c r="P41" t="n">
-        <v>2022.68581931764</v>
+        <v>2022.685819317641</v>
       </c>
       <c r="Q41" t="n">
         <v>2214.13286573389</v>
@@ -7438,25 +7438,25 @@
         <v>2311.617179646692</v>
       </c>
       <c r="S41" t="n">
-        <v>2311.617179646692</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="T41" t="n">
-        <v>2311.617179646692</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="U41" t="n">
-        <v>2053.434009441673</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="V41" t="n">
-        <v>1695.944594567922</v>
+        <v>2256.168722862134</v>
       </c>
       <c r="W41" t="n">
-        <v>1299.553244868269</v>
+        <v>2139.459903124138</v>
       </c>
       <c r="X41" t="n">
-        <v>1299.553244868269</v>
+        <v>1727.739904291886</v>
       </c>
       <c r="Y41" t="n">
-        <v>1299.553244868269</v>
+        <v>1322.402634246776</v>
       </c>
     </row>
     <row r="42">
@@ -7481,37 +7481,37 @@
         <v>181.4204744957056</v>
       </c>
       <c r="G42" t="n">
-        <v>88.51530986505763</v>
+        <v>88.51530986505765</v>
       </c>
       <c r="H42" t="n">
-        <v>46.23234359293384</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I42" t="n">
-        <v>68.98105121487161</v>
+        <v>92.43835705928346</v>
       </c>
       <c r="J42" t="n">
-        <v>294.8952038232827</v>
+        <v>189.4397035383768</v>
       </c>
       <c r="K42" t="n">
-        <v>454.5038787438094</v>
+        <v>349.0483784589036</v>
       </c>
       <c r="L42" t="n">
-        <v>676.6448520460459</v>
+        <v>571.1893517611401</v>
       </c>
       <c r="M42" t="n">
-        <v>939.0183812549392</v>
+        <v>833.5628809700333</v>
       </c>
       <c r="N42" t="n">
-        <v>1210.677561863999</v>
+        <v>1105.222061579093</v>
       </c>
       <c r="O42" t="n">
-        <v>1455.581922472659</v>
+        <v>1350.126422187753</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.997639746402</v>
+        <v>1543.542139461497</v>
       </c>
       <c r="Q42" t="n">
-        <v>1770.179055172945</v>
+        <v>1664.723554888039</v>
       </c>
       <c r="R42" t="n">
         <v>1816.638106865841</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1090.930336541175</v>
+        <v>884.8856757137904</v>
       </c>
       <c r="C43" t="n">
-        <v>918.9577734200911</v>
+        <v>712.9131125927064</v>
       </c>
       <c r="D43" t="n">
-        <v>755.6410005468618</v>
+        <v>549.5963397194771</v>
       </c>
       <c r="E43" t="n">
-        <v>589.4327946997154</v>
+        <v>383.3881338723306</v>
       </c>
       <c r="F43" t="n">
-        <v>417.5710204742758</v>
+        <v>211.5263596468911</v>
       </c>
       <c r="G43" t="n">
-        <v>252.2770044203185</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="H43" t="n">
-        <v>117.0422693054801</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I43" t="n">
-        <v>46.23234359293384</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="J43" t="n">
-        <v>170.4496866187611</v>
+        <v>92.52796997054025</v>
       </c>
       <c r="K43" t="n">
-        <v>259.3460184515217</v>
+        <v>181.4243018033008</v>
       </c>
       <c r="L43" t="n">
-        <v>377.9624093882221</v>
+        <v>300.0406927400013</v>
       </c>
       <c r="M43" t="n">
-        <v>917.0917138383729</v>
+        <v>839.1699971901521</v>
       </c>
       <c r="N43" t="n">
-        <v>1439.008968208879</v>
+        <v>1361.087251560659</v>
       </c>
       <c r="O43" t="n">
-        <v>1927.837646989755</v>
+        <v>1849.915930341534</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.587433572296</v>
+        <v>2254.6623585321</v>
       </c>
       <c r="Q43" t="n">
         <v>2311.617179646692</v>
@@ -7599,22 +7599,22 @@
         <v>2311.617179646692</v>
       </c>
       <c r="T43" t="n">
-        <v>2072.392270203055</v>
+        <v>2072.392270203056</v>
       </c>
       <c r="U43" t="n">
-        <v>1792.260346448004</v>
+        <v>2072.392270203056</v>
       </c>
       <c r="V43" t="n">
-        <v>1510.548879056033</v>
+        <v>1790.680802811085</v>
       </c>
       <c r="W43" t="n">
-        <v>1317.273104851433</v>
+        <v>1515.828398983598</v>
       </c>
       <c r="X43" t="n">
-        <v>1317.273104851433</v>
+        <v>1301.394412736114</v>
       </c>
       <c r="Y43" t="n">
-        <v>1090.930336541175</v>
+        <v>1075.051644425856</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1997.985552657115</v>
+        <v>1600.117272926571</v>
       </c>
       <c r="C44" t="n">
-        <v>1997.985552657115</v>
+        <v>1173.216542939871</v>
       </c>
       <c r="D44" t="n">
-        <v>1575.408865368314</v>
+        <v>1173.216542939871</v>
       </c>
       <c r="E44" t="n">
-        <v>1149.431925516171</v>
+        <v>747.2396030877285</v>
       </c>
       <c r="F44" t="n">
-        <v>724.3077437055715</v>
+        <v>322.1154212771287</v>
       </c>
       <c r="G44" t="n">
         <v>322.1154212771287</v>
       </c>
       <c r="H44" t="n">
-        <v>46.23234359293384</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I44" t="n">
-        <v>93.14514559076511</v>
+        <v>93.14514559076513</v>
       </c>
       <c r="J44" t="n">
-        <v>242.5954409926548</v>
+        <v>242.5954409926549</v>
       </c>
       <c r="K44" t="n">
         <v>474.8277020225645</v>
@@ -7666,7 +7666,7 @@
         <v>1757.324742125326</v>
       </c>
       <c r="P44" t="n">
-        <v>2022.68581931764</v>
+        <v>2022.685819317641</v>
       </c>
       <c r="Q44" t="n">
         <v>2214.13286573389</v>
@@ -7678,22 +7678,22 @@
         <v>2256.168722862134</v>
       </c>
       <c r="T44" t="n">
-        <v>2256.168722862134</v>
+        <v>2044.640506178448</v>
       </c>
       <c r="U44" t="n">
-        <v>1997.985552657115</v>
+        <v>1786.457335973429</v>
       </c>
       <c r="V44" t="n">
-        <v>1997.985552657115</v>
+        <v>1786.457335973429</v>
       </c>
       <c r="W44" t="n">
-        <v>1997.985552657115</v>
+        <v>1600.117272926571</v>
       </c>
       <c r="X44" t="n">
-        <v>1997.985552657115</v>
+        <v>1600.117272926571</v>
       </c>
       <c r="Y44" t="n">
-        <v>1997.985552657115</v>
+        <v>1600.117272926571</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>181.4204744957056</v>
       </c>
       <c r="G45" t="n">
-        <v>88.51530986505763</v>
+        <v>88.51530986505765</v>
       </c>
       <c r="H45" t="n">
-        <v>46.23234359293384</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I45" t="n">
-        <v>68.98105121487161</v>
+        <v>92.43835705928346</v>
       </c>
       <c r="J45" t="n">
-        <v>294.8952038232827</v>
+        <v>189.4397035383768</v>
       </c>
       <c r="K45" t="n">
-        <v>454.5038787438094</v>
+        <v>349.0483784589036</v>
       </c>
       <c r="L45" t="n">
-        <v>676.6448520460459</v>
+        <v>571.1893517611401</v>
       </c>
       <c r="M45" t="n">
-        <v>939.0183812549392</v>
+        <v>833.5628809700333</v>
       </c>
       <c r="N45" t="n">
-        <v>1210.677561863999</v>
+        <v>1105.222061579093</v>
       </c>
       <c r="O45" t="n">
-        <v>1455.581922472659</v>
+        <v>1350.126422187753</v>
       </c>
       <c r="P45" t="n">
-        <v>1648.997639746402</v>
+        <v>1543.542139461497</v>
       </c>
       <c r="Q45" t="n">
-        <v>1770.179055172945</v>
+        <v>1664.723554888039</v>
       </c>
       <c r="R45" t="n">
         <v>1816.638106865841</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>884.8856757137904</v>
+        <v>576.6238416520277</v>
       </c>
       <c r="C46" t="n">
-        <v>712.9131125927064</v>
+        <v>404.6512785309437</v>
       </c>
       <c r="D46" t="n">
-        <v>549.5963397194771</v>
+        <v>404.6512785309437</v>
       </c>
       <c r="E46" t="n">
-        <v>383.3881338723306</v>
+        <v>404.6512785309437</v>
       </c>
       <c r="F46" t="n">
-        <v>211.5263596468911</v>
+        <v>232.7895043055042</v>
       </c>
       <c r="G46" t="n">
-        <v>46.23234359293384</v>
+        <v>181.4670787077723</v>
       </c>
       <c r="H46" t="n">
-        <v>46.23234359293384</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="I46" t="n">
-        <v>46.23234359293384</v>
+        <v>46.23234359293385</v>
       </c>
       <c r="J46" t="n">
-        <v>170.4496866187611</v>
+        <v>92.52796997054025</v>
       </c>
       <c r="K46" t="n">
-        <v>506.6286275655438</v>
+        <v>181.4243018033008</v>
       </c>
       <c r="L46" t="n">
-        <v>877.2574528163258</v>
+        <v>676.4295863311662</v>
       </c>
       <c r="M46" t="n">
-        <v>1002.851276803655</v>
+        <v>802.0234103184953</v>
       </c>
       <c r="N46" t="n">
-        <v>1524.768531174161</v>
+        <v>1323.940664689002</v>
       </c>
       <c r="O46" t="n">
-        <v>2013.597209955037</v>
+        <v>1812.769343469878</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.587433572296</v>
+        <v>2217.515771660444</v>
       </c>
       <c r="Q46" t="n">
         <v>2311.617179646692</v>
@@ -7833,25 +7833,25 @@
         <v>2311.617179646692</v>
       </c>
       <c r="S46" t="n">
-        <v>2158.263788079654</v>
+        <v>2311.617179646692</v>
       </c>
       <c r="T46" t="n">
-        <v>2158.263788079654</v>
+        <v>2072.392270203056</v>
       </c>
       <c r="U46" t="n">
-        <v>2100.522180509767</v>
+        <v>1792.260346448004</v>
       </c>
       <c r="V46" t="n">
-        <v>1818.810713117796</v>
+        <v>1510.548879056033</v>
       </c>
       <c r="W46" t="n">
-        <v>1543.958309290309</v>
+        <v>1235.696475228546</v>
       </c>
       <c r="X46" t="n">
-        <v>1301.394412736114</v>
+        <v>993.1325786743513</v>
       </c>
       <c r="Y46" t="n">
-        <v>1075.051644425856</v>
+        <v>766.7898103640933</v>
       </c>
     </row>
   </sheetData>
@@ -7987,7 +7987,7 @@
         <v>7.727993863709251</v>
       </c>
       <c r="M2" t="n">
-        <v>3.400615951243282</v>
+        <v>3.400615951243275</v>
       </c>
       <c r="N2" t="n">
         <v>2.698324440689774</v>
@@ -8145,7 +8145,7 @@
         <v>8.993937537569462</v>
       </c>
       <c r="M4" t="n">
-        <v>8.948026908651903</v>
+        <v>8.948026908651901</v>
       </c>
       <c r="N4" t="n">
         <v>7.445517414732592</v>
@@ -8455,28 +8455,28 @@
         <v>7.415995117306377</v>
       </c>
       <c r="K8" t="n">
-        <v>14.09098963664901</v>
+        <v>2.786362146091506</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>3.212938848649728</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.3246898349445</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.956864270184571</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0.2941343268911041</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.128025379424038</v>
+        <v>19.43265286998153</v>
       </c>
       <c r="R8" t="n">
-        <v>18.74720796782874</v>
+        <v>26.24170092160752</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8616,22 +8616,22 @@
         <v>7.453525154664099</v>
       </c>
       <c r="L10" t="n">
-        <v>15.93379360376456</v>
+        <v>4.629166113207059</v>
       </c>
       <c r="M10" t="n">
-        <v>4.345987427773775</v>
+        <v>15.65061491833127</v>
       </c>
       <c r="N10" t="n">
-        <v>14.25753163720324</v>
+        <v>2.952904146645739</v>
       </c>
       <c r="O10" t="n">
-        <v>17.36633155188893</v>
+        <v>16.9095789260078</v>
       </c>
       <c r="P10" t="n">
-        <v>19.16356877921771</v>
+        <v>19.62032140509881</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.881611906857</v>
+        <v>26.18623939741449</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.37539003541804</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8853,16 +8853,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5866010684577958</v>
+        <v>360.0219516362448</v>
       </c>
       <c r="M13" t="n">
         <v>354.4082905479649</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>6.851949834011165</v>
       </c>
       <c r="O13" t="n">
-        <v>366.2873004017982</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>70.37539003541804</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.37539003541846</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M16" t="n">
-        <v>354.4082905479649</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>50.95854331539987</v>
+        <v>198.2474048310581</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>7.360890261673887</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>358.0675224703016</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>106.5207073584907</v>
@@ -9327,19 +9327,19 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>203.861065919338</v>
+        <v>360.0219516362447</v>
       </c>
       <c r="M19" t="n">
-        <v>354.4082905479649</v>
+        <v>354.4082905479648</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>70.37539003541778</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.37539003541778</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9570,16 +9570,16 @@
         <v>354.4082905479649</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>159.7544724379495</v>
       </c>
       <c r="O22" t="n">
-        <v>6.851949834011137</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>141.3742228632098</v>
+        <v>141.3742228632095</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9810,10 +9810,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>342.0228114087803</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>276.4206702674717</v>
       </c>
       <c r="Q25" t="n">
         <v>152.9025226039384</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>141.3742228632098</v>
+        <v>141.3742228632095</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>39.21411680778775</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
-        <v>381.5174992961649</v>
+        <v>319.5638461650911</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>141.3742228632098</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>11.15926717703005</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>342.0228114087802</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>319.5638461650916</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>141.3742228632098</v>
+        <v>11.15926717703003</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
-        <v>380.1908016072373</v>
+        <v>320.1601555999777</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -10521,10 +10521,10 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O34" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>124.1476260979176</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
         <v>152.9025226039384</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>141.3742228632098</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>11.15926717703007</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>249.7804132464869</v>
+        <v>2.321790321307972</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>240.2255630355336</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>117.6799745355211</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>11.15926717703007</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>383.2098111830868</v>
+        <v>393.1280856394722</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>141.3742228632095</v>
+        <v>11.15926717703003</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>86.62582117705252</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>2.321790321307724</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>141.3742228632095</v>
+        <v>11.15926717703003</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>254.5580144586682</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11472,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>39.84359524217322</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1018657343322577</v>
+        <v>0.1018657343322502</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -23020,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>4.345253158057233</v>
       </c>
       <c r="C8" t="n">
-        <v>12.67460679314981</v>
+        <v>11.32709519627537</v>
       </c>
       <c r="D8" t="n">
-        <v>7.755067116292189</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E8" t="n">
-        <v>10.41254296306351</v>
+        <v>20.68316729565204</v>
       </c>
       <c r="F8" t="n">
-        <v>9.568312501936241</v>
+        <v>9.568312501936248</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03641654712531522</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -23269,13 +23269,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>340.3447206289209</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H11" t="n">
-        <v>277.176001558223</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23323,10 +23323,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>230.4966529557962</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>61.45960176058601</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23427,13 +23427,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.8185422817731</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I13" t="n">
         <v>75.43872475250879</v>
@@ -23466,10 +23466,10 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T13" t="n">
-        <v>60.7630626797127</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -23509,7 +23509,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>297.4344088986446</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H14" t="n">
         <v>277.176001558223</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>211.1448086517629</v>
+        <v>99.92096312665775</v>
       </c>
       <c r="U14" t="n">
         <v>255.632988972596</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>149.2067764490294</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>130.7334610444093</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>75.43872475250879</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.68284247578064</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>154.9126128011615</v>
@@ -23712,10 +23712,10 @@
         <v>277.3402845023203</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>211.1217173020636</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>404.5743599827951</v>
       </c>
       <c r="G17" t="n">
         <v>398.5660300744983</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.90941067458683</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.1448086517629</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.632988972596</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>56.29719188813949</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>135.4602252892499</v>
       </c>
       <c r="I19" t="n">
         <v>75.43872475250879</v>
@@ -23940,16 +23940,16 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>154.9126128011615</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.5909258267186</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>37.01383501741435</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.5660300744983</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>277.176001558223</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>211.1448086517629</v>
       </c>
       <c r="U20" t="n">
-        <v>15.96709728296179</v>
+        <v>180.1577002495839</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>94.39092100251216</v>
+        <v>163.8185422817731</v>
       </c>
       <c r="H22" t="n">
-        <v>135.4602252892499</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>75.43872475250879</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>11.68284247578064</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>8.420518186291901</v>
       </c>
       <c r="T22" t="n">
         <v>237.5909258267186</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3402845023203</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>310.2647921160623</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>273.1242469073529</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>54.89397221671299</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.4129345168493</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.6013385029688</v>
       </c>
       <c r="V23" t="n">
-        <v>47.52268720970892</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>8.284973994229475</v>
       </c>
       <c r="I25" t="n">
-        <v>70.10182645542086</v>
+        <v>70.10182645542085</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>3.703308323000449</v>
+        <v>3.703308323000442</v>
       </c>
       <c r="S25" t="n">
-        <v>151.8198576513678</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8326603492001</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>202.2289431356358</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>250.1653525115628</v>
+        <v>310.2647921160627</v>
       </c>
       <c r="H26" t="n">
-        <v>273.124246907353</v>
+        <v>273.1242469073529</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.4129345168493</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6013385029688</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>28.77054366265682</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>13.6955924191565</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -24618,7 +24618,7 @@
         <v>163.6410758934176</v>
       </c>
       <c r="H28" t="n">
-        <v>133.88238776369</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>3.703308323000449</v>
+        <v>3.703308323000442</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>151.8198576513678</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>303.3013507792207</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>310.2647921160623</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>273.1242469073529</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>54.89397221671299</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.4129345168493</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6013385029688</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.6410758934176</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.88238776369</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>70.10182645542085</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.703308323000442</v>
       </c>
       <c r="S31" t="n">
-        <v>151.8198576513678</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8326603492001</v>
+        <v>14.46364476104361</v>
       </c>
       <c r="U31" t="n">
-        <v>276.0340779140573</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>291.2516879659979</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>398.1703992041583</v>
       </c>
       <c r="H32" t="n">
-        <v>273.124246907353</v>
+        <v>273.1242469073529</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.4129345168493</v>
+        <v>39.33869439618906</v>
       </c>
       <c r="U32" t="n">
         <v>255.6013385029688</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.10220303615924</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>70.14922027825799</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>70.10182645542086</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>3.703308323000442</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>151.8198576513678</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.330604517501</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
@@ -25168,10 +25168,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.1703992041583</v>
       </c>
       <c r="H35" t="n">
-        <v>257.1694472997096</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>54.89397221671299</v>
+        <v>54.89397221671298</v>
       </c>
       <c r="T35" t="n">
-        <v>209.4129345168493</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>65.00216865416439</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>125.1723117448316</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>150.3035032736545</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.88238776369</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>70.10182645542086</v>
+        <v>70.10182645542085</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>3.703308323000449</v>
+        <v>3.703308323000442</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>102.2361662240496</v>
       </c>
       <c r="F38" t="n">
-        <v>319.6971917558354</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.1703992041583</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>273.124246907353</v>
+        <v>273.1242469073529</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>209.4129345168493</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6013385029688</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>47.04790786519681</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.88238776369</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>151.8198576513678</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8326603492001</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>276.0340779140578</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>273.0970642950439</v>
+        <v>398.1703992041583</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>273.1242469073529</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>54.89397221671298</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.4129345168493</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6013385029688</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>276.8857046620408</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.88238776369</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>70.10182645542085</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.330604517501</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>80.76086332665847</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>27.84861120364403</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7087741909369925</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.1703992041583</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.4129345168493</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>207.9507737862672</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>112.8318745516631</v>
       </c>
       <c r="H46" t="n">
-        <v>133.88238776369</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>70.10182645542085</v>
@@ -26073,13 +26073,13 @@
         <v>3.703308323000442</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>151.8198576513678</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8326603492001</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>220.1664130233128</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>368426.6399130209</v>
+        <v>368426.639913021</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>368426.639913021</v>
+        <v>368426.6399130209</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>368426.6399130211</v>
+        <v>368426.639913021</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>368426.639913021</v>
+        <v>368426.6399130209</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>423254.4648015992</v>
+        <v>423254.4648015994</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>423254.464801599</v>
+        <v>423254.4648015994</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>423254.4648015992</v>
+        <v>423254.4648015993</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>423254.4648015992</v>
+        <v>423254.4648015993</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>423254.464801599</v>
+        <v>423254.4648015992</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>423254.4648015992</v>
+        <v>423254.4648015993</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>423254.4648015992</v>
+        <v>423254.4648015993</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358607.8989839879</v>
+        <v>358607.8989839882</v>
       </c>
       <c r="C2" t="n">
         <v>358607.8989839879</v>
@@ -26322,40 +26322,40 @@
         <v>360793.7372497279</v>
       </c>
       <c r="E2" t="n">
-        <v>192211.6033177296</v>
+        <v>192211.6033177297</v>
       </c>
       <c r="F2" t="n">
-        <v>192211.6033177296</v>
+        <v>192211.6033177297</v>
       </c>
       <c r="G2" t="n">
         <v>192211.6033177296</v>
       </c>
       <c r="H2" t="n">
-        <v>192211.6033177297</v>
+        <v>192211.6033177296</v>
       </c>
       <c r="I2" t="n">
         <v>224525.6783015728</v>
       </c>
       <c r="J2" t="n">
+        <v>224525.6783015728</v>
+      </c>
+      <c r="K2" t="n">
+        <v>224525.6783015728</v>
+      </c>
+      <c r="L2" t="n">
+        <v>224525.6783015728</v>
+      </c>
+      <c r="M2" t="n">
+        <v>224525.6783015728</v>
+      </c>
+      <c r="N2" t="n">
         <v>224525.6783015727</v>
-      </c>
-      <c r="K2" t="n">
-        <v>224525.6783015727</v>
-      </c>
-      <c r="L2" t="n">
-        <v>224525.6783015727</v>
-      </c>
-      <c r="M2" t="n">
-        <v>224525.6783015727</v>
-      </c>
-      <c r="N2" t="n">
-        <v>224525.6783015726</v>
       </c>
       <c r="O2" t="n">
         <v>224525.6783015728</v>
       </c>
       <c r="P2" t="n">
-        <v>224525.6783015727</v>
+        <v>224525.6783015728</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>107174.8805874332</v>
+        <v>107174.8805874333</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2861.099476212461</v>
+        <v>2861.099476212687</v>
       </c>
       <c r="M3" t="n">
         <v>110184.912753339</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>309501.538725305</v>
+        <v>309501.5387253049</v>
       </c>
       <c r="C4" t="n">
         <v>309501.538725305</v>
       </c>
       <c r="D4" t="n">
-        <v>306135.8244910063</v>
+        <v>306135.8244910062</v>
       </c>
       <c r="E4" t="n">
         <v>22838.96559584219</v>
       </c>
       <c r="F4" t="n">
+        <v>22838.9655958422</v>
+      </c>
+      <c r="G4" t="n">
         <v>22838.96559584219</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22838.96559584221</v>
       </c>
       <c r="H4" t="n">
         <v>22838.96559584219</v>
@@ -26441,25 +26441,25 @@
         <v>19577.57578812845</v>
       </c>
       <c r="J4" t="n">
-        <v>19577.57578812845</v>
+        <v>19577.57578812844</v>
       </c>
       <c r="K4" t="n">
         <v>19577.57578812845</v>
       </c>
       <c r="L4" t="n">
-        <v>19577.57578812844</v>
+        <v>19577.57578812845</v>
       </c>
       <c r="M4" t="n">
+        <v>19577.57578812846</v>
+      </c>
+      <c r="N4" t="n">
         <v>19577.57578812845</v>
       </c>
-      <c r="N4" t="n">
-        <v>19577.57578812844</v>
-      </c>
       <c r="O4" t="n">
-        <v>19577.57578812844</v>
+        <v>19577.57578812845</v>
       </c>
       <c r="P4" t="n">
-        <v>19577.57578812844</v>
+        <v>19577.57578812845</v>
       </c>
     </row>
     <row r="5">
@@ -26490,22 +26490,22 @@
         <v>36949.30081304155</v>
       </c>
       <c r="I5" t="n">
-        <v>46661.40302622963</v>
+        <v>46661.40302622964</v>
       </c>
       <c r="J5" t="n">
-        <v>46661.40302622963</v>
+        <v>46661.40302622964</v>
       </c>
       <c r="K5" t="n">
-        <v>46661.40302622963</v>
+        <v>46661.40302622964</v>
       </c>
       <c r="L5" t="n">
-        <v>46661.40302622963</v>
+        <v>46661.40302622964</v>
       </c>
       <c r="M5" t="n">
-        <v>46661.40302622963</v>
+        <v>46661.40302622964</v>
       </c>
       <c r="N5" t="n">
-        <v>46661.40302622962</v>
+        <v>46661.40302622964</v>
       </c>
       <c r="O5" t="n">
         <v>46661.40302622964</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-32027.26679512753</v>
+        <v>-32048.94186921908</v>
       </c>
       <c r="C6" t="n">
-        <v>14427.79848958401</v>
+        <v>14406.123415492</v>
       </c>
       <c r="D6" t="n">
-        <v>1482.723067982726</v>
+        <v>1469.791346953789</v>
       </c>
       <c r="E6" t="n">
-        <v>-293443.7486541086</v>
+        <v>-294131.0089108655</v>
       </c>
       <c r="F6" t="n">
-        <v>132423.3369088459</v>
+        <v>131736.0766520889</v>
       </c>
       <c r="G6" t="n">
-        <v>132423.3369088458</v>
+        <v>131736.0766520889</v>
       </c>
       <c r="H6" t="n">
-        <v>132423.3369088459</v>
+        <v>131736.0766520889</v>
       </c>
       <c r="I6" t="n">
-        <v>51111.81889978156</v>
+        <v>50553.81494295977</v>
       </c>
       <c r="J6" t="n">
-        <v>158286.6994872146</v>
+        <v>157728.695530393</v>
       </c>
       <c r="K6" t="n">
-        <v>158286.6994872146</v>
+        <v>157728.695530393</v>
       </c>
       <c r="L6" t="n">
-        <v>155425.6000110021</v>
+        <v>154867.5960541804</v>
       </c>
       <c r="M6" t="n">
-        <v>48101.78673387565</v>
+        <v>47543.78277705413</v>
       </c>
       <c r="N6" t="n">
-        <v>158286.6994872145</v>
+        <v>157728.695530393</v>
       </c>
       <c r="O6" t="n">
-        <v>158286.6994872147</v>
+        <v>157728.6955303931</v>
       </c>
       <c r="P6" t="n">
-        <v>158286.6994872147</v>
+        <v>157728.695530393</v>
       </c>
     </row>
   </sheetData>
@@ -26746,34 +26746,34 @@
         <v>64.48974078097982</v>
       </c>
       <c r="E3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="F3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="G3" t="n">
-        <v>430.248375846946</v>
+        <v>430.2483758469461</v>
       </c>
       <c r="H3" t="n">
         <v>430.2483758469461</v>
       </c>
       <c r="I3" t="n">
-        <v>528.6615548440329</v>
+        <v>528.661554844033</v>
       </c>
       <c r="J3" t="n">
-        <v>528.6615548440329</v>
+        <v>528.661554844033</v>
       </c>
       <c r="K3" t="n">
-        <v>528.6615548440329</v>
+        <v>528.661554844033</v>
       </c>
       <c r="L3" t="n">
-        <v>528.6615548440329</v>
+        <v>528.661554844033</v>
       </c>
       <c r="M3" t="n">
-        <v>528.6615548440329</v>
+        <v>528.661554844033</v>
       </c>
       <c r="N3" t="n">
-        <v>528.6615548440329</v>
+        <v>528.661554844033</v>
       </c>
       <c r="O3" t="n">
         <v>528.661554844033</v>
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>11.3046274905575</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="E4" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="F4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="G4" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="H4" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="I4" t="n">
-        <v>577.9042949116729</v>
+        <v>577.9042949116731</v>
       </c>
       <c r="J4" t="n">
-        <v>577.9042949116729</v>
+        <v>577.904294911673</v>
       </c>
       <c r="K4" t="n">
-        <v>577.9042949116729</v>
+        <v>577.9042949116731</v>
       </c>
       <c r="L4" t="n">
-        <v>577.9042949116729</v>
+        <v>577.9042949116731</v>
       </c>
       <c r="M4" t="n">
-        <v>577.9042949116729</v>
+        <v>577.9042949116731</v>
       </c>
       <c r="N4" t="n">
-        <v>577.9042949116728</v>
+        <v>577.904294911673</v>
       </c>
       <c r="O4" t="n">
-        <v>577.904294911673</v>
+        <v>577.9042949116731</v>
       </c>
       <c r="P4" t="n">
-        <v>577.904294911673</v>
+        <v>577.9042949116731</v>
       </c>
     </row>
   </sheetData>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>98.41317899708685</v>
+        <v>98.41317899708696</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>11.3046274905575</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="E4" t="n">
-        <v>442.1474484893459</v>
+        <v>442.147448489346</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>124.4522189317694</v>
+        <v>124.4522189317696</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>11.3046274905566</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="M4" t="n">
-        <v>442.1474484893459</v>
+        <v>442.147448489346</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>11.3046274905575</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="M4" t="n">
-        <v>442.1474484893459</v>
+        <v>442.147448489346</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27931,25 +27931,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>117.680623432179</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C9" t="n">
-        <v>105.0262169571128</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D9" t="n">
         <v>91.49693140931032</v>
       </c>
       <c r="E9" t="n">
-        <v>103.6549143897921</v>
+        <v>93.6977984961091</v>
       </c>
       <c r="F9" t="n">
-        <v>92.70937201392488</v>
+        <v>81.40474452336738</v>
       </c>
       <c r="G9" t="n">
         <v>92.97452028251483</v>
       </c>
       <c r="H9" t="n">
-        <v>51.50264919965579</v>
+        <v>40.1980217090983</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -28000,7 +28000,7 @@
         <v>161.8425727710037</v>
       </c>
       <c r="Y9" t="n">
-        <v>126.991332269683</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="10">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>178.307193131262</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>150.3789776539395</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>30.03464464155541</v>
+        <v>30.03464464155542</v>
       </c>
       <c r="S10" t="n">
-        <v>166.4070276113493</v>
+        <v>156.4499117176663</v>
       </c>
       <c r="T10" t="n">
         <v>240.4090661296859</v>
@@ -28076,7 +28076,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>228.8336300980954</v>
       </c>
       <c r="Y10" t="n">
         <v>212.7747131365979</v>
@@ -31047,7 +31047,7 @@
         <v>1.984816231208193</v>
       </c>
       <c r="I2" t="n">
-        <v>7.471707824108769</v>
+        <v>7.471707824108768</v>
       </c>
       <c r="J2" t="n">
         <v>16.44904641557491</v>
@@ -31059,7 +31059,7 @@
         <v>30.58404856891367</v>
       </c>
       <c r="M2" t="n">
-        <v>34.03064694818853</v>
+        <v>34.03064694818854</v>
       </c>
       <c r="N2" t="n">
         <v>34.58129839375625</v>
@@ -31156,7 +31156,7 @@
         <v>6.438209625828375</v>
       </c>
       <c r="S3" t="n">
-        <v>1.926096197045997</v>
+        <v>1.926096197045998</v>
       </c>
       <c r="T3" t="n">
         <v>0.4179651487804657</v>
@@ -31232,7 +31232,7 @@
         <v>7.279597574951182</v>
       </c>
       <c r="R4" t="n">
-        <v>3.90890127084014</v>
+        <v>3.908901270840141</v>
       </c>
       <c r="S4" t="n">
         <v>1.51503512660747</v>
@@ -31615,7 +31615,7 @@
         <v>34.40140800288547</v>
       </c>
       <c r="N9" t="n">
-        <v>32.64765570409917</v>
+        <v>32.64765570409916</v>
       </c>
       <c r="O9" t="n">
         <v>33.00353743533785</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H11" t="n">
         <v>17.71369318248255</v>
@@ -31776,7 +31776,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O11" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P11" t="n">
         <v>248.7246402301936</v>
@@ -31791,7 +31791,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T11" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U11" t="n">
         <v>0.1383713369558016</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H12" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I12" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J12" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K12" t="n">
         <v>149.4382495618586</v>
@@ -31849,7 +31849,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M12" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N12" t="n">
         <v>240.6914947108307</v>
@@ -31864,7 +31864,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R12" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S12" t="n">
         <v>17.18964029916807</v>
@@ -31873,7 +31873,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H13" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I13" t="n">
         <v>23.332157824618</v>
@@ -31922,7 +31922,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K13" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L13" t="n">
         <v>115.3488842393599</v>
@@ -31937,10 +31937,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P13" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R13" t="n">
         <v>34.88538470391794</v>
@@ -31949,10 +31949,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T13" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H14" t="n">
         <v>17.71369318248255</v>
@@ -32013,7 +32013,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O14" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P14" t="n">
         <v>248.7246402301936</v>
@@ -32028,7 +32028,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T14" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U14" t="n">
         <v>0.1383713369558016</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H15" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I15" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J15" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K15" t="n">
         <v>149.4382495618586</v>
@@ -32086,7 +32086,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M15" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N15" t="n">
         <v>240.6914947108307</v>
@@ -32101,7 +32101,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R15" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S15" t="n">
         <v>17.18964029916807</v>
@@ -32110,7 +32110,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H16" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I16" t="n">
         <v>23.332157824618</v>
@@ -32159,7 +32159,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K16" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L16" t="n">
         <v>115.3488842393599</v>
@@ -32174,10 +32174,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P16" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R16" t="n">
         <v>34.88538470391794</v>
@@ -32186,10 +32186,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T16" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.72964171194752</v>
+        <v>1.729641711947521</v>
       </c>
       <c r="H17" t="n">
         <v>17.71369318248255</v>
@@ -32250,7 +32250,7 @@
         <v>308.6242947670762</v>
       </c>
       <c r="O17" t="n">
-        <v>291.425169993898</v>
+        <v>291.4251699938981</v>
       </c>
       <c r="P17" t="n">
         <v>248.7246402301936</v>
@@ -32265,7 +32265,7 @@
         <v>39.41421051100416</v>
       </c>
       <c r="T17" t="n">
-        <v>7.571506594050274</v>
+        <v>7.571506594050276</v>
       </c>
       <c r="U17" t="n">
         <v>0.1383713369558016</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9254399027651292</v>
+        <v>0.9254399027651293</v>
       </c>
       <c r="H18" t="n">
-        <v>8.937801166179012</v>
+        <v>8.937801166179014</v>
       </c>
       <c r="I18" t="n">
-        <v>31.86273349432572</v>
+        <v>31.86273349432573</v>
       </c>
       <c r="J18" t="n">
-        <v>87.43377607659497</v>
+        <v>87.43377607659498</v>
       </c>
       <c r="K18" t="n">
         <v>149.4382495618586</v>
@@ -32323,7 +32323,7 @@
         <v>200.9381683613497</v>
       </c>
       <c r="M18" t="n">
-        <v>234.4853648365855</v>
+        <v>234.4853648365856</v>
       </c>
       <c r="N18" t="n">
         <v>240.6914947108307</v>
@@ -32338,7 +32338,7 @@
         <v>118.1315917985804</v>
       </c>
       <c r="R18" t="n">
-        <v>57.45845291027708</v>
+        <v>57.45845291027709</v>
       </c>
       <c r="S18" t="n">
         <v>17.18964029916807</v>
@@ -32347,7 +32347,7 @@
         <v>3.730172239654182</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06088420412928484</v>
+        <v>0.06088420412928485</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7758577269371157</v>
+        <v>0.7758577269371159</v>
       </c>
       <c r="H19" t="n">
-        <v>6.89808051767727</v>
+        <v>6.898080517677271</v>
       </c>
       <c r="I19" t="n">
         <v>23.332157824618</v>
@@ -32396,7 +32396,7 @@
         <v>54.85314129445408</v>
       </c>
       <c r="K19" t="n">
-        <v>90.14056136596669</v>
+        <v>90.1405613659667</v>
       </c>
       <c r="L19" t="n">
         <v>115.3488842393599</v>
@@ -32411,10 +32411,10 @@
         <v>109.6639630765298</v>
       </c>
       <c r="P19" t="n">
-        <v>93.83646544701257</v>
+        <v>93.83646544701259</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.96750475288884</v>
+        <v>64.96750475288886</v>
       </c>
       <c r="R19" t="n">
         <v>34.88538470391794</v>
@@ -32423,10 +32423,10 @@
         <v>13.521084204895</v>
       </c>
       <c r="T19" t="n">
-        <v>3.315028469640402</v>
+        <v>3.315028469640403</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04231951237838818</v>
+        <v>0.04231951237838819</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32703,28 +32703,28 @@
         <v>2.125272582287568</v>
       </c>
       <c r="H23" t="n">
-        <v>21.76544783335256</v>
+        <v>21.76544783335257</v>
       </c>
       <c r="I23" t="n">
-        <v>81.93457122864154</v>
+        <v>81.93457122864156</v>
       </c>
       <c r="J23" t="n">
-        <v>180.3798538309296</v>
+        <v>180.3798538309297</v>
       </c>
       <c r="K23" t="n">
-        <v>270.3426422391624</v>
+        <v>270.3426422391625</v>
       </c>
       <c r="L23" t="n">
         <v>335.3839530293457</v>
       </c>
       <c r="M23" t="n">
-        <v>373.1792693146022</v>
+        <v>373.1792693146023</v>
       </c>
       <c r="N23" t="n">
-        <v>379.2177000390268</v>
+        <v>379.2177000390269</v>
       </c>
       <c r="O23" t="n">
-        <v>358.0845207989047</v>
+        <v>358.0845207989048</v>
       </c>
       <c r="P23" t="n">
         <v>305.6168539236804</v>
@@ -32739,7 +32739,7 @@
         <v>48.42964896887801</v>
       </c>
       <c r="T23" t="n">
-        <v>9.303380728963834</v>
+        <v>9.303380728963836</v>
       </c>
       <c r="U23" t="n">
         <v>0.1700218065830054</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.137121080230561</v>
+        <v>1.137121080230562</v>
       </c>
       <c r="H24" t="n">
         <v>10.98219569591095</v>
       </c>
       <c r="I24" t="n">
-        <v>39.15087929741188</v>
+        <v>39.15087929741189</v>
       </c>
       <c r="J24" t="n">
-        <v>107.4330052159935</v>
+        <v>107.4330052159936</v>
       </c>
       <c r="K24" t="n">
         <v>183.6201175914412</v>
       </c>
       <c r="L24" t="n">
-        <v>246.8999082316401</v>
+        <v>246.8999082316402</v>
       </c>
       <c r="M24" t="n">
-        <v>288.1205473899979</v>
+        <v>288.120547389998</v>
       </c>
       <c r="N24" t="n">
-        <v>295.7462409499652</v>
+        <v>295.7462409499653</v>
       </c>
       <c r="O24" t="n">
         <v>270.5500317511722</v>
@@ -32812,16 +32812,16 @@
         <v>145.1525084167994</v>
       </c>
       <c r="R24" t="n">
-        <v>70.60125443747296</v>
+        <v>70.60125443747297</v>
       </c>
       <c r="S24" t="n">
         <v>21.12152532796678</v>
       </c>
       <c r="T24" t="n">
-        <v>4.583395933034586</v>
+        <v>4.583395933034587</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0748105973835896</v>
+        <v>0.07481059738358961</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9533241152925183</v>
+        <v>0.9533241152925185</v>
       </c>
       <c r="H25" t="n">
-        <v>8.475918043237124</v>
+        <v>8.475918043237126</v>
       </c>
       <c r="I25" t="n">
-        <v>28.66905612170592</v>
+        <v>28.66905612170593</v>
       </c>
       <c r="J25" t="n">
-        <v>67.40001495118103</v>
+        <v>67.40001495118105</v>
       </c>
       <c r="K25" t="n">
         <v>110.758929031258</v>
       </c>
       <c r="L25" t="n">
-        <v>141.7332961953986</v>
+        <v>141.7332961953987</v>
       </c>
       <c r="M25" t="n">
         <v>149.4378883635354</v>
@@ -32888,19 +32888,19 @@
         <v>115.3002184531969</v>
       </c>
       <c r="Q25" t="n">
-        <v>79.82789478144898</v>
+        <v>79.82789478144899</v>
       </c>
       <c r="R25" t="n">
-        <v>42.86491885669813</v>
+        <v>42.86491885669814</v>
       </c>
       <c r="S25" t="n">
         <v>16.6138393546887</v>
       </c>
       <c r="T25" t="n">
-        <v>4.073293947158941</v>
+        <v>4.073293947158942</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05199949719777379</v>
+        <v>0.0519994971977738</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,28 +32940,28 @@
         <v>2.125272582287568</v>
       </c>
       <c r="H26" t="n">
-        <v>21.76544783335256</v>
+        <v>21.76544783335257</v>
       </c>
       <c r="I26" t="n">
-        <v>81.93457122864154</v>
+        <v>81.93457122864156</v>
       </c>
       <c r="J26" t="n">
-        <v>180.3798538309296</v>
+        <v>180.3798538309297</v>
       </c>
       <c r="K26" t="n">
-        <v>270.3426422391624</v>
+        <v>270.3426422391625</v>
       </c>
       <c r="L26" t="n">
         <v>335.3839530293457</v>
       </c>
       <c r="M26" t="n">
-        <v>373.1792693146022</v>
+        <v>373.1792693146023</v>
       </c>
       <c r="N26" t="n">
-        <v>379.2177000390268</v>
+        <v>379.2177000390269</v>
       </c>
       <c r="O26" t="n">
-        <v>358.0845207989047</v>
+        <v>358.0845207989048</v>
       </c>
       <c r="P26" t="n">
         <v>305.6168539236804</v>
@@ -32976,7 +32976,7 @@
         <v>48.42964896887801</v>
       </c>
       <c r="T26" t="n">
-        <v>9.303380728963834</v>
+        <v>9.303380728963836</v>
       </c>
       <c r="U26" t="n">
         <v>0.1700218065830054</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.137121080230561</v>
+        <v>1.137121080230562</v>
       </c>
       <c r="H27" t="n">
         <v>10.98219569591095</v>
       </c>
       <c r="I27" t="n">
-        <v>39.15087929741188</v>
+        <v>39.15087929741189</v>
       </c>
       <c r="J27" t="n">
-        <v>107.4330052159935</v>
+        <v>107.4330052159936</v>
       </c>
       <c r="K27" t="n">
         <v>183.6201175914412</v>
       </c>
       <c r="L27" t="n">
-        <v>246.8999082316401</v>
+        <v>246.8999082316402</v>
       </c>
       <c r="M27" t="n">
-        <v>288.1205473899979</v>
+        <v>288.120547389998</v>
       </c>
       <c r="N27" t="n">
-        <v>295.7462409499652</v>
+        <v>295.7462409499653</v>
       </c>
       <c r="O27" t="n">
         <v>270.5500317511722</v>
@@ -33049,16 +33049,16 @@
         <v>145.1525084167994</v>
       </c>
       <c r="R27" t="n">
-        <v>70.60125443747296</v>
+        <v>70.60125443747297</v>
       </c>
       <c r="S27" t="n">
         <v>21.12152532796678</v>
       </c>
       <c r="T27" t="n">
-        <v>4.583395933034586</v>
+        <v>4.583395933034587</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0748105973835896</v>
+        <v>0.07481059738358961</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9533241152925183</v>
+        <v>0.9533241152925185</v>
       </c>
       <c r="H28" t="n">
-        <v>8.475918043237124</v>
+        <v>8.475918043237126</v>
       </c>
       <c r="I28" t="n">
-        <v>28.66905612170592</v>
+        <v>28.66905612170593</v>
       </c>
       <c r="J28" t="n">
-        <v>67.40001495118103</v>
+        <v>67.40001495118105</v>
       </c>
       <c r="K28" t="n">
         <v>110.758929031258</v>
       </c>
       <c r="L28" t="n">
-        <v>141.7332961953986</v>
+        <v>141.7332961953987</v>
       </c>
       <c r="M28" t="n">
         <v>149.4378883635354</v>
@@ -33125,19 +33125,19 @@
         <v>115.3002184531969</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.82789478144898</v>
+        <v>79.82789478144899</v>
       </c>
       <c r="R28" t="n">
-        <v>42.86491885669813</v>
+        <v>42.86491885669814</v>
       </c>
       <c r="S28" t="n">
         <v>16.6138393546887</v>
       </c>
       <c r="T28" t="n">
-        <v>4.073293947158941</v>
+        <v>4.073293947158942</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05199949719777379</v>
+        <v>0.0519994971977738</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,28 +33177,28 @@
         <v>2.125272582287568</v>
       </c>
       <c r="H29" t="n">
-        <v>21.76544783335256</v>
+        <v>21.76544783335257</v>
       </c>
       <c r="I29" t="n">
-        <v>81.93457122864154</v>
+        <v>81.93457122864156</v>
       </c>
       <c r="J29" t="n">
-        <v>180.3798538309296</v>
+        <v>180.3798538309297</v>
       </c>
       <c r="K29" t="n">
-        <v>270.3426422391624</v>
+        <v>270.3426422391625</v>
       </c>
       <c r="L29" t="n">
         <v>335.3839530293457</v>
       </c>
       <c r="M29" t="n">
-        <v>373.1792693146022</v>
+        <v>373.1792693146023</v>
       </c>
       <c r="N29" t="n">
-        <v>379.2177000390268</v>
+        <v>379.2177000390269</v>
       </c>
       <c r="O29" t="n">
-        <v>358.0845207989047</v>
+        <v>358.0845207989048</v>
       </c>
       <c r="P29" t="n">
         <v>305.6168539236804</v>
@@ -33213,7 +33213,7 @@
         <v>48.42964896887801</v>
       </c>
       <c r="T29" t="n">
-        <v>9.303380728963834</v>
+        <v>9.303380728963836</v>
       </c>
       <c r="U29" t="n">
         <v>0.1700218065830054</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.137121080230561</v>
+        <v>1.137121080230562</v>
       </c>
       <c r="H30" t="n">
         <v>10.98219569591095</v>
       </c>
       <c r="I30" t="n">
-        <v>39.15087929741188</v>
+        <v>39.15087929741189</v>
       </c>
       <c r="J30" t="n">
-        <v>107.4330052159935</v>
+        <v>107.4330052159936</v>
       </c>
       <c r="K30" t="n">
         <v>183.6201175914412</v>
       </c>
       <c r="L30" t="n">
-        <v>246.8999082316401</v>
+        <v>246.8999082316402</v>
       </c>
       <c r="M30" t="n">
-        <v>288.1205473899979</v>
+        <v>288.120547389998</v>
       </c>
       <c r="N30" t="n">
-        <v>295.7462409499652</v>
+        <v>295.7462409499653</v>
       </c>
       <c r="O30" t="n">
         <v>270.5500317511722</v>
@@ -33286,16 +33286,16 @@
         <v>145.1525084167994</v>
       </c>
       <c r="R30" t="n">
-        <v>70.60125443747296</v>
+        <v>70.60125443747297</v>
       </c>
       <c r="S30" t="n">
         <v>21.12152532796678</v>
       </c>
       <c r="T30" t="n">
-        <v>4.583395933034586</v>
+        <v>4.583395933034587</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0748105973835896</v>
+        <v>0.07481059738358961</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9533241152925183</v>
+        <v>0.9533241152925185</v>
       </c>
       <c r="H31" t="n">
-        <v>8.475918043237124</v>
+        <v>8.475918043237126</v>
       </c>
       <c r="I31" t="n">
-        <v>28.66905612170592</v>
+        <v>28.66905612170593</v>
       </c>
       <c r="J31" t="n">
-        <v>67.40001495118103</v>
+        <v>67.40001495118105</v>
       </c>
       <c r="K31" t="n">
         <v>110.758929031258</v>
       </c>
       <c r="L31" t="n">
-        <v>141.7332961953986</v>
+        <v>141.7332961953987</v>
       </c>
       <c r="M31" t="n">
         <v>149.4378883635354</v>
@@ -33362,19 +33362,19 @@
         <v>115.3002184531969</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.82789478144898</v>
+        <v>79.82789478144899</v>
       </c>
       <c r="R31" t="n">
-        <v>42.86491885669813</v>
+        <v>42.86491885669814</v>
       </c>
       <c r="S31" t="n">
         <v>16.6138393546887</v>
       </c>
       <c r="T31" t="n">
-        <v>4.073293947158941</v>
+        <v>4.073293947158942</v>
       </c>
       <c r="U31" t="n">
-        <v>0.05199949719777379</v>
+        <v>0.0519994971977738</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,28 +33414,28 @@
         <v>2.125272582287568</v>
       </c>
       <c r="H32" t="n">
-        <v>21.76544783335256</v>
+        <v>21.76544783335257</v>
       </c>
       <c r="I32" t="n">
-        <v>81.93457122864154</v>
+        <v>81.93457122864156</v>
       </c>
       <c r="J32" t="n">
-        <v>180.3798538309296</v>
+        <v>180.3798538309297</v>
       </c>
       <c r="K32" t="n">
-        <v>270.3426422391624</v>
+        <v>270.3426422391625</v>
       </c>
       <c r="L32" t="n">
         <v>335.3839530293457</v>
       </c>
       <c r="M32" t="n">
-        <v>373.1792693146022</v>
+        <v>373.1792693146023</v>
       </c>
       <c r="N32" t="n">
-        <v>379.2177000390268</v>
+        <v>379.2177000390269</v>
       </c>
       <c r="O32" t="n">
-        <v>358.0845207989047</v>
+        <v>358.0845207989048</v>
       </c>
       <c r="P32" t="n">
         <v>305.6168539236804</v>
@@ -33450,7 +33450,7 @@
         <v>48.42964896887801</v>
       </c>
       <c r="T32" t="n">
-        <v>9.303380728963834</v>
+        <v>9.303380728963836</v>
       </c>
       <c r="U32" t="n">
         <v>0.1700218065830054</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.137121080230561</v>
+        <v>1.137121080230562</v>
       </c>
       <c r="H33" t="n">
         <v>10.98219569591095</v>
       </c>
       <c r="I33" t="n">
-        <v>39.15087929741188</v>
+        <v>39.15087929741189</v>
       </c>
       <c r="J33" t="n">
-        <v>107.4330052159935</v>
+        <v>107.4330052159936</v>
       </c>
       <c r="K33" t="n">
         <v>183.6201175914412</v>
       </c>
       <c r="L33" t="n">
-        <v>246.8999082316401</v>
+        <v>246.8999082316402</v>
       </c>
       <c r="M33" t="n">
-        <v>288.1205473899979</v>
+        <v>288.120547389998</v>
       </c>
       <c r="N33" t="n">
-        <v>295.7462409499652</v>
+        <v>295.7462409499653</v>
       </c>
       <c r="O33" t="n">
         <v>270.5500317511722</v>
@@ -33523,16 +33523,16 @@
         <v>145.1525084167994</v>
       </c>
       <c r="R33" t="n">
-        <v>70.60125443747296</v>
+        <v>70.60125443747297</v>
       </c>
       <c r="S33" t="n">
         <v>21.12152532796678</v>
       </c>
       <c r="T33" t="n">
-        <v>4.583395933034586</v>
+        <v>4.583395933034587</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0748105973835896</v>
+        <v>0.07481059738358961</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.9533241152925183</v>
+        <v>0.9533241152925185</v>
       </c>
       <c r="H34" t="n">
-        <v>8.475918043237124</v>
+        <v>8.475918043237126</v>
       </c>
       <c r="I34" t="n">
-        <v>28.66905612170592</v>
+        <v>28.66905612170593</v>
       </c>
       <c r="J34" t="n">
-        <v>67.40001495118103</v>
+        <v>67.40001495118105</v>
       </c>
       <c r="K34" t="n">
         <v>110.758929031258</v>
       </c>
       <c r="L34" t="n">
-        <v>141.7332961953986</v>
+        <v>141.7332961953987</v>
       </c>
       <c r="M34" t="n">
         <v>149.4378883635354</v>
@@ -33599,19 +33599,19 @@
         <v>115.3002184531969</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.82789478144898</v>
+        <v>79.82789478144899</v>
       </c>
       <c r="R34" t="n">
-        <v>42.86491885669813</v>
+        <v>42.86491885669814</v>
       </c>
       <c r="S34" t="n">
         <v>16.6138393546887</v>
       </c>
       <c r="T34" t="n">
-        <v>4.073293947158941</v>
+        <v>4.073293947158942</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05199949719777379</v>
+        <v>0.0519994971977738</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,28 +33651,28 @@
         <v>2.125272582287568</v>
       </c>
       <c r="H35" t="n">
-        <v>21.76544783335256</v>
+        <v>21.76544783335257</v>
       </c>
       <c r="I35" t="n">
-        <v>81.93457122864154</v>
+        <v>81.93457122864156</v>
       </c>
       <c r="J35" t="n">
-        <v>180.3798538309296</v>
+        <v>180.3798538309297</v>
       </c>
       <c r="K35" t="n">
-        <v>270.3426422391624</v>
+        <v>270.3426422391625</v>
       </c>
       <c r="L35" t="n">
         <v>335.3839530293457</v>
       </c>
       <c r="M35" t="n">
-        <v>373.1792693146022</v>
+        <v>373.1792693146023</v>
       </c>
       <c r="N35" t="n">
-        <v>379.2177000390268</v>
+        <v>379.2177000390269</v>
       </c>
       <c r="O35" t="n">
-        <v>358.0845207989047</v>
+        <v>358.0845207989048</v>
       </c>
       <c r="P35" t="n">
         <v>305.6168539236804</v>
@@ -33687,7 +33687,7 @@
         <v>48.42964896887801</v>
       </c>
       <c r="T35" t="n">
-        <v>9.303380728963834</v>
+        <v>9.303380728963836</v>
       </c>
       <c r="U35" t="n">
         <v>0.1700218065830054</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.137121080230561</v>
+        <v>1.137121080230562</v>
       </c>
       <c r="H36" t="n">
         <v>10.98219569591095</v>
       </c>
       <c r="I36" t="n">
-        <v>39.15087929741188</v>
+        <v>39.15087929741189</v>
       </c>
       <c r="J36" t="n">
-        <v>107.4330052159935</v>
+        <v>107.4330052159936</v>
       </c>
       <c r="K36" t="n">
         <v>183.6201175914412</v>
       </c>
       <c r="L36" t="n">
-        <v>246.8999082316401</v>
+        <v>246.8999082316402</v>
       </c>
       <c r="M36" t="n">
-        <v>288.1205473899979</v>
+        <v>288.120547389998</v>
       </c>
       <c r="N36" t="n">
-        <v>295.7462409499652</v>
+        <v>295.7462409499653</v>
       </c>
       <c r="O36" t="n">
         <v>270.5500317511722</v>
@@ -33760,16 +33760,16 @@
         <v>145.1525084167994</v>
       </c>
       <c r="R36" t="n">
-        <v>70.60125443747296</v>
+        <v>70.60125443747297</v>
       </c>
       <c r="S36" t="n">
         <v>21.12152532796678</v>
       </c>
       <c r="T36" t="n">
-        <v>4.583395933034586</v>
+        <v>4.583395933034587</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0748105973835896</v>
+        <v>0.07481059738358961</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9533241152925183</v>
+        <v>0.9533241152925185</v>
       </c>
       <c r="H37" t="n">
-        <v>8.475918043237124</v>
+        <v>8.475918043237126</v>
       </c>
       <c r="I37" t="n">
-        <v>28.66905612170592</v>
+        <v>28.66905612170593</v>
       </c>
       <c r="J37" t="n">
-        <v>67.40001495118103</v>
+        <v>67.40001495118105</v>
       </c>
       <c r="K37" t="n">
         <v>110.758929031258</v>
       </c>
       <c r="L37" t="n">
-        <v>141.7332961953986</v>
+        <v>141.7332961953987</v>
       </c>
       <c r="M37" t="n">
         <v>149.4378883635354</v>
@@ -33836,19 +33836,19 @@
         <v>115.3002184531969</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.82789478144898</v>
+        <v>79.82789478144899</v>
       </c>
       <c r="R37" t="n">
-        <v>42.86491885669813</v>
+        <v>42.86491885669814</v>
       </c>
       <c r="S37" t="n">
         <v>16.6138393546887</v>
       </c>
       <c r="T37" t="n">
-        <v>4.073293947158941</v>
+        <v>4.073293947158942</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05199949719777379</v>
+        <v>0.0519994971977738</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,28 +33888,28 @@
         <v>2.125272582287568</v>
       </c>
       <c r="H38" t="n">
-        <v>21.76544783335256</v>
+        <v>21.76544783335257</v>
       </c>
       <c r="I38" t="n">
-        <v>81.93457122864154</v>
+        <v>81.93457122864156</v>
       </c>
       <c r="J38" t="n">
-        <v>180.3798538309296</v>
+        <v>180.3798538309297</v>
       </c>
       <c r="K38" t="n">
-        <v>270.3426422391624</v>
+        <v>270.3426422391625</v>
       </c>
       <c r="L38" t="n">
         <v>335.3839530293457</v>
       </c>
       <c r="M38" t="n">
-        <v>373.1792693146022</v>
+        <v>373.1792693146023</v>
       </c>
       <c r="N38" t="n">
-        <v>379.2177000390268</v>
+        <v>379.2177000390269</v>
       </c>
       <c r="O38" t="n">
-        <v>358.0845207989047</v>
+        <v>358.0845207989048</v>
       </c>
       <c r="P38" t="n">
         <v>305.6168539236804</v>
@@ -33924,7 +33924,7 @@
         <v>48.42964896887801</v>
       </c>
       <c r="T38" t="n">
-        <v>9.303380728963834</v>
+        <v>9.303380728963836</v>
       </c>
       <c r="U38" t="n">
         <v>0.1700218065830054</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.137121080230561</v>
+        <v>1.137121080230562</v>
       </c>
       <c r="H39" t="n">
         <v>10.98219569591095</v>
       </c>
       <c r="I39" t="n">
-        <v>39.15087929741188</v>
+        <v>39.15087929741189</v>
       </c>
       <c r="J39" t="n">
-        <v>107.4330052159935</v>
+        <v>107.4330052159936</v>
       </c>
       <c r="K39" t="n">
         <v>183.6201175914412</v>
       </c>
       <c r="L39" t="n">
-        <v>246.8999082316401</v>
+        <v>246.8999082316402</v>
       </c>
       <c r="M39" t="n">
-        <v>288.1205473899979</v>
+        <v>288.120547389998</v>
       </c>
       <c r="N39" t="n">
-        <v>295.7462409499652</v>
+        <v>295.7462409499653</v>
       </c>
       <c r="O39" t="n">
         <v>270.5500317511722</v>
@@ -33997,16 +33997,16 @@
         <v>145.1525084167994</v>
       </c>
       <c r="R39" t="n">
-        <v>70.60125443747296</v>
+        <v>70.60125443747297</v>
       </c>
       <c r="S39" t="n">
         <v>21.12152532796678</v>
       </c>
       <c r="T39" t="n">
-        <v>4.583395933034586</v>
+        <v>4.583395933034587</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0748105973835896</v>
+        <v>0.07481059738358961</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9533241152925183</v>
+        <v>0.9533241152925185</v>
       </c>
       <c r="H40" t="n">
-        <v>8.475918043237124</v>
+        <v>8.475918043237126</v>
       </c>
       <c r="I40" t="n">
-        <v>28.66905612170592</v>
+        <v>28.66905612170593</v>
       </c>
       <c r="J40" t="n">
-        <v>67.40001495118103</v>
+        <v>67.40001495118105</v>
       </c>
       <c r="K40" t="n">
         <v>110.758929031258</v>
       </c>
       <c r="L40" t="n">
-        <v>141.7332961953986</v>
+        <v>141.7332961953987</v>
       </c>
       <c r="M40" t="n">
         <v>149.4378883635354</v>
@@ -34073,19 +34073,19 @@
         <v>115.3002184531969</v>
       </c>
       <c r="Q40" t="n">
-        <v>79.82789478144898</v>
+        <v>79.82789478144899</v>
       </c>
       <c r="R40" t="n">
-        <v>42.86491885669813</v>
+        <v>42.86491885669814</v>
       </c>
       <c r="S40" t="n">
         <v>16.6138393546887</v>
       </c>
       <c r="T40" t="n">
-        <v>4.073293947158941</v>
+        <v>4.073293947158942</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05199949719777379</v>
+        <v>0.0519994971977738</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34386,13 +34386,13 @@
         <v>358.0845207989048</v>
       </c>
       <c r="P44" t="n">
-        <v>305.6168539236804</v>
+        <v>305.616853923681</v>
       </c>
       <c r="Q44" t="n">
         <v>229.5055295705068</v>
       </c>
       <c r="R44" t="n">
-        <v>133.5016538471217</v>
+        <v>133.5016538471216</v>
       </c>
       <c r="S44" t="n">
         <v>48.42964896887801</v>
@@ -35175,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.3046274905575</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>2.600378746450332</v>
       </c>
       <c r="M8" t="n">
-        <v>11.3046274905575</v>
+        <v>8.091688641907773</v>
       </c>
       <c r="N8" t="n">
-        <v>11.3046274905575</v>
+        <v>8.979937655613</v>
       </c>
       <c r="O8" t="n">
-        <v>8.247496118226056</v>
+        <v>6.290631848041485</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>7.494492953778783</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>7.603447411830878</v>
       </c>
       <c r="M9" t="n">
-        <v>11.3046274905575</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="N9" t="n">
-        <v>11.3046274905575</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="O9" t="n">
         <v>9.831647713115625</v>
@@ -35336,22 +35336,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>11.3046274905575</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="N10" t="n">
-        <v>11.3046274905575</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>11.3046274905575</v>
+        <v>10.84787486467638</v>
       </c>
       <c r="P10" t="n">
-        <v>10.84787486467639</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>11.30462749055749</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L11" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M11" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N11" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O11" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P11" t="n">
         <v>211.1492784199623</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J12" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K12" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639431</v>
       </c>
       <c r="L12" t="n">
         <v>178.4230816471201</v>
@@ -35503,13 +35503,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O12" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P12" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.7599435450199</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R12" t="n">
         <v>140.3062408746237</v>
@@ -35573,19 +35573,19 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L13" t="n">
-        <v>94.01672541211651</v>
+        <v>453.4520759799035</v>
       </c>
       <c r="M13" t="n">
         <v>453.4520759799035</v>
       </c>
       <c r="N13" t="n">
-        <v>97.97849100196758</v>
+        <v>104.8304408359788</v>
       </c>
       <c r="O13" t="n">
-        <v>453.4520759799035</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P13" t="n">
-        <v>71.45566478902609</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q13" t="n">
         <v>193.2504645920423</v>
@@ -35652,16 +35652,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L14" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M14" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N14" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O14" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P14" t="n">
         <v>211.1492784199623</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J15" t="n">
         <v>361.8756844398183</v>
       </c>
       <c r="K15" t="n">
-        <v>197.4144057639433</v>
+        <v>127.0390157285253</v>
       </c>
       <c r="L15" t="n">
         <v>178.4230816471201</v>
@@ -35740,13 +35740,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O15" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P15" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q15" t="n">
-        <v>95.38455350960186</v>
+        <v>165.7599435450203</v>
       </c>
       <c r="R15" t="n">
         <v>140.3062408746237</v>
@@ -35810,22 +35810,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L16" t="n">
-        <v>93.43012434365872</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M16" t="n">
-        <v>453.4520759799035</v>
+        <v>99.0437854319386</v>
       </c>
       <c r="N16" t="n">
-        <v>97.97849100196758</v>
+        <v>97.9784910019676</v>
       </c>
       <c r="O16" t="n">
-        <v>138.1233188935052</v>
+        <v>285.4121804091635</v>
       </c>
       <c r="P16" t="n">
         <v>387.3710229438823</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>184.2523111213353</v>
       </c>
       <c r="L17" t="n">
-        <v>234.6383920255356</v>
+        <v>234.6383920255357</v>
       </c>
       <c r="M17" t="n">
-        <v>266.2786873535734</v>
+        <v>266.2786873535735</v>
       </c>
       <c r="N17" t="n">
         <v>271.3446719326302</v>
       </c>
       <c r="O17" t="n">
-        <v>254.0342106378739</v>
+        <v>254.034210637874</v>
       </c>
       <c r="P17" t="n">
         <v>211.1492784199623</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.38459507201445</v>
+        <v>39.38459507201446</v>
       </c>
       <c r="J18" t="n">
-        <v>74.18355200493552</v>
+        <v>361.8756844398183</v>
       </c>
       <c r="K18" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639431</v>
       </c>
       <c r="L18" t="n">
         <v>178.4230816471201</v>
@@ -35977,13 +35977,13 @@
         <v>219.3484664972891</v>
       </c>
       <c r="O18" t="n">
-        <v>197.0138050378653</v>
+        <v>197.0138050378654</v>
       </c>
       <c r="P18" t="n">
         <v>154.9475907538915</v>
       </c>
       <c r="Q18" t="n">
-        <v>453.4520759799035</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R18" t="n">
         <v>140.3062408746237</v>
@@ -36047,22 +36047,22 @@
         <v>318.9563201597416</v>
       </c>
       <c r="L19" t="n">
-        <v>297.2911902629967</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="M19" t="n">
-        <v>453.4520759799035</v>
+        <v>453.4520759799034</v>
       </c>
       <c r="N19" t="n">
-        <v>97.97849100196758</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O19" t="n">
-        <v>87.16477557810536</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P19" t="n">
-        <v>387.3710229438823</v>
+        <v>71.4556647890261</v>
       </c>
       <c r="Q19" t="n">
-        <v>40.3479419881039</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>361.8756844398183</v>
       </c>
       <c r="K21" t="n">
-        <v>127.0390157285253</v>
+        <v>197.4144057639431</v>
       </c>
       <c r="L21" t="n">
         <v>178.4230816471201</v>
@@ -36220,7 +36220,7 @@
         <v>154.9475907538915</v>
       </c>
       <c r="Q21" t="n">
-        <v>165.7599435450197</v>
+        <v>95.38455350960189</v>
       </c>
       <c r="R21" t="n">
         <v>140.3062408746237</v>
@@ -36290,16 +36290,16 @@
         <v>453.4520759799035</v>
       </c>
       <c r="N22" t="n">
-        <v>97.9784910019676</v>
+        <v>257.7329634399171</v>
       </c>
       <c r="O22" t="n">
-        <v>94.01672541211651</v>
+        <v>87.16477557810538</v>
       </c>
       <c r="P22" t="n">
         <v>71.4556647890261</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.2504645920423</v>
+        <v>40.34794198810391</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>47.38666868467804</v>
+        <v>47.38666868467806</v>
       </c>
       <c r="J23" t="n">
         <v>150.9598943453431</v>
       </c>
       <c r="K23" t="n">
-        <v>234.5780414443531</v>
+        <v>234.5780414443532</v>
       </c>
       <c r="L23" t="n">
-        <v>297.0719105967227</v>
+        <v>297.0719105967228</v>
       </c>
       <c r="M23" t="n">
         <v>335.7480064151704</v>
@@ -36378,10 +36378,10 @@
         <v>268.0414921134491</v>
       </c>
       <c r="Q23" t="n">
-        <v>193.3808549659087</v>
+        <v>193.3808549659088</v>
       </c>
       <c r="R23" t="n">
-        <v>98.4690039523251</v>
+        <v>98.46900395232512</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>22.97849254741188</v>
+        <v>22.97849254741189</v>
       </c>
       <c r="J24" t="n">
-        <v>228.19611374587</v>
+        <v>228.1961137458697</v>
       </c>
       <c r="K24" t="n">
         <v>161.2208837581078</v>
@@ -36445,10 +36445,10 @@
         <v>224.3848215174106</v>
       </c>
       <c r="M24" t="n">
-        <v>265.0237668776699</v>
+        <v>265.02376687767</v>
       </c>
       <c r="N24" t="n">
-        <v>274.4032127364235</v>
+        <v>274.4032127364236</v>
       </c>
       <c r="O24" t="n">
         <v>247.37814202895</v>
@@ -36460,7 +36460,7 @@
         <v>122.4054701278209</v>
       </c>
       <c r="R24" t="n">
-        <v>46.92833504332881</v>
+        <v>46.92833504332883</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>125.4720636624518</v>
       </c>
       <c r="K25" t="n">
-        <v>339.5746878250329</v>
+        <v>339.574687825033</v>
       </c>
       <c r="L25" t="n">
         <v>500.0053379069348</v>
@@ -36530,10 +36530,10 @@
         <v>125.1356884127539</v>
       </c>
       <c r="O25" t="n">
-        <v>454.2716543155203</v>
+        <v>493.7663422029049</v>
       </c>
       <c r="P25" t="n">
-        <v>408.8347759500666</v>
+        <v>369.3400880626821</v>
       </c>
       <c r="Q25" t="n">
         <v>208.1108546206025</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>47.38666868467804</v>
+        <v>47.38666868467806</v>
       </c>
       <c r="J26" t="n">
         <v>150.9598943453431</v>
       </c>
       <c r="K26" t="n">
-        <v>234.5780414443531</v>
+        <v>234.5780414443532</v>
       </c>
       <c r="L26" t="n">
-        <v>297.0719105967227</v>
+        <v>297.0719105967228</v>
       </c>
       <c r="M26" t="n">
         <v>335.7480064151704</v>
@@ -36615,10 +36615,10 @@
         <v>268.0414921134491</v>
       </c>
       <c r="Q26" t="n">
-        <v>193.3808549659087</v>
+        <v>193.3808549659088</v>
       </c>
       <c r="R26" t="n">
-        <v>98.4690039523251</v>
+        <v>98.46900395232512</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.97849254741188</v>
+        <v>22.97849254741189</v>
       </c>
       <c r="J27" t="n">
-        <v>228.19611374587</v>
+        <v>228.1961137458697</v>
       </c>
       <c r="K27" t="n">
         <v>161.2208837581078</v>
@@ -36682,10 +36682,10 @@
         <v>224.3848215174106</v>
       </c>
       <c r="M27" t="n">
-        <v>265.0237668776699</v>
+        <v>265.02376687767</v>
       </c>
       <c r="N27" t="n">
-        <v>274.4032127364235</v>
+        <v>274.4032127364236</v>
       </c>
       <c r="O27" t="n">
         <v>247.37814202895</v>
@@ -36697,7 +36697,7 @@
         <v>122.4054701278209</v>
       </c>
       <c r="R27" t="n">
-        <v>46.92833504332881</v>
+        <v>46.92833504332883</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>85.97737577506692</v>
+        <v>46.76325896727919</v>
       </c>
       <c r="K28" t="n">
-        <v>339.5746878250329</v>
+        <v>89.79427457854604</v>
       </c>
       <c r="L28" t="n">
         <v>500.0053379069348</v>
       </c>
       <c r="M28" t="n">
-        <v>126.8624484720496</v>
+        <v>544.5750550001524</v>
       </c>
       <c r="N28" t="n">
-        <v>125.1356884127539</v>
+        <v>527.1891458287945</v>
       </c>
       <c r="O28" t="n">
-        <v>493.7663422029049</v>
+        <v>431.8126890718311</v>
       </c>
       <c r="P28" t="n">
-        <v>408.8347759500666</v>
+        <v>92.91941779521044</v>
       </c>
       <c r="Q28" t="n">
-        <v>208.1108546206025</v>
+        <v>55.20833201666404</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>47.38666868467804</v>
+        <v>47.38666868467806</v>
       </c>
       <c r="J29" t="n">
         <v>150.9598943453431</v>
       </c>
       <c r="K29" t="n">
-        <v>234.5780414443531</v>
+        <v>234.5780414443532</v>
       </c>
       <c r="L29" t="n">
-        <v>297.0719105967227</v>
+        <v>297.0719105967228</v>
       </c>
       <c r="M29" t="n">
         <v>335.7480064151704</v>
@@ -36852,10 +36852,10 @@
         <v>268.0414921134491</v>
       </c>
       <c r="Q29" t="n">
-        <v>193.3808549659087</v>
+        <v>193.3808549659088</v>
       </c>
       <c r="R29" t="n">
-        <v>98.4690039523251</v>
+        <v>98.46900395232512</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>22.97849254741188</v>
+        <v>46.67274087510062</v>
       </c>
       <c r="J30" t="n">
-        <v>228.19611374587</v>
+        <v>86.82189088266023</v>
       </c>
       <c r="K30" t="n">
         <v>161.2208837581078</v>
@@ -36919,22 +36919,22 @@
         <v>224.3848215174106</v>
       </c>
       <c r="M30" t="n">
-        <v>265.0237668776699</v>
+        <v>265.02376687767</v>
       </c>
       <c r="N30" t="n">
-        <v>274.4032127364235</v>
+        <v>274.4032127364236</v>
       </c>
       <c r="O30" t="n">
         <v>247.37814202895</v>
       </c>
       <c r="P30" t="n">
-        <v>195.3694113876196</v>
+        <v>206.5286785646496</v>
       </c>
       <c r="Q30" t="n">
         <v>122.4054701278209</v>
       </c>
       <c r="R30" t="n">
-        <v>46.92833504332881</v>
+        <v>153.4490424018196</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>125.4720636624518</v>
+        <v>46.76325896727919</v>
       </c>
       <c r="K31" t="n">
-        <v>339.5746878250329</v>
+        <v>89.79427457854604</v>
       </c>
       <c r="L31" t="n">
         <v>500.0053379069348</v>
       </c>
       <c r="M31" t="n">
-        <v>126.8624484720496</v>
+        <v>544.5750550001524</v>
       </c>
       <c r="N31" t="n">
-        <v>467.1584998215341</v>
+        <v>527.1891458287945</v>
       </c>
       <c r="O31" t="n">
-        <v>112.2488429067399</v>
+        <v>431.8126890718315</v>
       </c>
       <c r="P31" t="n">
-        <v>408.8347759500666</v>
+        <v>92.91941779521044</v>
       </c>
       <c r="Q31" t="n">
-        <v>208.1108546206025</v>
+        <v>55.20833201666404</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,16 +37065,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>47.38666868467804</v>
+        <v>47.38666868467806</v>
       </c>
       <c r="J32" t="n">
         <v>150.9598943453431</v>
       </c>
       <c r="K32" t="n">
-        <v>234.5780414443531</v>
+        <v>234.5780414443532</v>
       </c>
       <c r="L32" t="n">
-        <v>297.0719105967227</v>
+        <v>297.0719105967228</v>
       </c>
       <c r="M32" t="n">
         <v>335.7480064151704</v>
@@ -37089,10 +37089,10 @@
         <v>268.0414921134491</v>
       </c>
       <c r="Q32" t="n">
-        <v>193.3808549659087</v>
+        <v>193.3808549659088</v>
       </c>
       <c r="R32" t="n">
-        <v>98.4690039523251</v>
+        <v>98.46900395232512</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>22.97849254741188</v>
+        <v>46.67274087510062</v>
       </c>
       <c r="J33" t="n">
-        <v>228.19611374587</v>
+        <v>97.98115805969026</v>
       </c>
       <c r="K33" t="n">
         <v>161.2208837581078</v>
@@ -37156,10 +37156,10 @@
         <v>224.3848215174106</v>
       </c>
       <c r="M33" t="n">
-        <v>265.0237668776699</v>
+        <v>265.02376687767</v>
       </c>
       <c r="N33" t="n">
-        <v>274.4032127364235</v>
+        <v>274.4032127364236</v>
       </c>
       <c r="O33" t="n">
         <v>247.37814202895</v>
@@ -37171,7 +37171,7 @@
         <v>122.4054701278209</v>
       </c>
       <c r="R33" t="n">
-        <v>46.92833504332881</v>
+        <v>153.4490424018196</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>125.4720636624518</v>
       </c>
       <c r="K34" t="n">
-        <v>89.79427457854601</v>
+        <v>339.574687825033</v>
       </c>
       <c r="L34" t="n">
-        <v>500.0053379069348</v>
+        <v>439.9746918996751</v>
       </c>
       <c r="M34" t="n">
         <v>126.8624484720496</v>
@@ -37241,10 +37241,10 @@
         <v>527.1891458287945</v>
       </c>
       <c r="O34" t="n">
-        <v>493.7663422029049</v>
+        <v>112.24884290674</v>
       </c>
       <c r="P34" t="n">
-        <v>217.067043893128</v>
+        <v>408.8347759500666</v>
       </c>
       <c r="Q34" t="n">
         <v>208.1108546206025</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>47.38666868467804</v>
+        <v>47.38666868467806</v>
       </c>
       <c r="J35" t="n">
         <v>150.9598943453431</v>
       </c>
       <c r="K35" t="n">
-        <v>234.5780414443531</v>
+        <v>234.5780414443532</v>
       </c>
       <c r="L35" t="n">
-        <v>297.0719105967227</v>
+        <v>297.0719105967228</v>
       </c>
       <c r="M35" t="n">
         <v>335.7480064151704</v>
@@ -37326,10 +37326,10 @@
         <v>268.0414921134491</v>
       </c>
       <c r="Q35" t="n">
-        <v>193.3808549659087</v>
+        <v>193.3808549659088</v>
       </c>
       <c r="R35" t="n">
-        <v>98.4690039523251</v>
+        <v>98.46900395232512</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>22.97849254741188</v>
+        <v>46.67274087510062</v>
       </c>
       <c r="J36" t="n">
-        <v>228.19611374587</v>
+        <v>86.82189088266023</v>
       </c>
       <c r="K36" t="n">
         <v>161.2208837581078</v>
@@ -37393,10 +37393,10 @@
         <v>224.3848215174106</v>
       </c>
       <c r="M36" t="n">
-        <v>265.0237668776699</v>
+        <v>265.02376687767</v>
       </c>
       <c r="N36" t="n">
-        <v>274.4032127364235</v>
+        <v>274.4032127364236</v>
       </c>
       <c r="O36" t="n">
         <v>247.37814202895</v>
@@ -37405,10 +37405,10 @@
         <v>195.3694113876196</v>
       </c>
       <c r="Q36" t="n">
-        <v>122.4054701278209</v>
+        <v>133.564737304851</v>
       </c>
       <c r="R36" t="n">
-        <v>46.92833504332881</v>
+        <v>153.4490424018196</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>125.4720636624518</v>
+        <v>46.76325896727919</v>
       </c>
       <c r="K37" t="n">
-        <v>339.5746878250329</v>
+        <v>92.11606489985401</v>
       </c>
       <c r="L37" t="n">
-        <v>500.0053379069348</v>
+        <v>119.8145362996974</v>
       </c>
       <c r="M37" t="n">
         <v>544.5750550001524</v>
       </c>
       <c r="N37" t="n">
-        <v>125.1356884127539</v>
+        <v>527.1891458287945</v>
       </c>
       <c r="O37" t="n">
-        <v>112.2488429067399</v>
+        <v>493.7663422029049</v>
       </c>
       <c r="P37" t="n">
-        <v>333.144980830744</v>
+        <v>408.8347759500666</v>
       </c>
       <c r="Q37" t="n">
-        <v>208.1108546206025</v>
+        <v>55.20833201666404</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>47.38666868467804</v>
+        <v>47.38666868467806</v>
       </c>
       <c r="J38" t="n">
         <v>150.9598943453431</v>
       </c>
       <c r="K38" t="n">
-        <v>234.5780414443531</v>
+        <v>234.5780414443532</v>
       </c>
       <c r="L38" t="n">
-        <v>297.0719105967227</v>
+        <v>297.0719105967228</v>
       </c>
       <c r="M38" t="n">
         <v>335.7480064151704</v>
@@ -37563,10 +37563,10 @@
         <v>268.0414921134491</v>
       </c>
       <c r="Q38" t="n">
-        <v>193.3808549659087</v>
+        <v>193.3808549659088</v>
       </c>
       <c r="R38" t="n">
-        <v>98.4690039523251</v>
+        <v>98.46900395232512</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>46.6727408751006</v>
+        <v>46.67274087510062</v>
       </c>
       <c r="J39" t="n">
-        <v>86.82189088266021</v>
+        <v>86.82189088266023</v>
       </c>
       <c r="K39" t="n">
         <v>161.2208837581078</v>
@@ -37630,22 +37630,22 @@
         <v>224.3848215174106</v>
       </c>
       <c r="M39" t="n">
-        <v>265.0237668776699</v>
+        <v>265.02376687767</v>
       </c>
       <c r="N39" t="n">
-        <v>274.4032127364235</v>
+        <v>274.4032127364236</v>
       </c>
       <c r="O39" t="n">
         <v>247.37814202895</v>
       </c>
       <c r="P39" t="n">
-        <v>313.0493859231406</v>
+        <v>195.3694113876196</v>
       </c>
       <c r="Q39" t="n">
-        <v>122.4054701278209</v>
+        <v>133.564737304851</v>
       </c>
       <c r="R39" t="n">
-        <v>46.92833504332881</v>
+        <v>153.4490424018196</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>46.76325896727917</v>
+        <v>125.4720636624518</v>
       </c>
       <c r="K40" t="n">
-        <v>339.5746878250329</v>
+        <v>339.574687825033</v>
       </c>
       <c r="L40" t="n">
-        <v>119.8145362996974</v>
+        <v>500.0053379069348</v>
       </c>
       <c r="M40" t="n">
         <v>544.5750550001524</v>
       </c>
       <c r="N40" t="n">
-        <v>508.3454995958407</v>
+        <v>518.2637740522262</v>
       </c>
       <c r="O40" t="n">
-        <v>112.2488429067399</v>
+        <v>112.24884290674</v>
       </c>
       <c r="P40" t="n">
-        <v>408.8347759500666</v>
+        <v>92.91941779521044</v>
       </c>
       <c r="Q40" t="n">
-        <v>208.1108546206025</v>
+        <v>55.20833201666404</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>22.97849254741189</v>
+        <v>46.67274087510062</v>
       </c>
       <c r="J42" t="n">
-        <v>228.1961137458697</v>
+        <v>97.98115805969026</v>
       </c>
       <c r="K42" t="n">
         <v>161.2208837581078</v>
@@ -37882,7 +37882,7 @@
         <v>122.4054701278209</v>
       </c>
       <c r="R42" t="n">
-        <v>46.92833504332883</v>
+        <v>153.4490424018196</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>125.4720636624518</v>
+        <v>46.76325896727919</v>
       </c>
       <c r="K43" t="n">
         <v>89.79427457854604</v>
@@ -37955,10 +37955,10 @@
         <v>493.7663422029049</v>
       </c>
       <c r="P43" t="n">
-        <v>179.545238972263</v>
+        <v>408.8347759500666</v>
       </c>
       <c r="Q43" t="n">
-        <v>208.1108546206025</v>
+        <v>57.53012233797177</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>320.6935614428807</v>
       </c>
       <c r="P44" t="n">
-        <v>268.0414921134491</v>
+        <v>268.0414921134497</v>
       </c>
       <c r="Q44" t="n">
         <v>193.3808549659088</v>
       </c>
       <c r="R44" t="n">
-        <v>98.46900395232527</v>
+        <v>98.46900395232512</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.97849254741189</v>
+        <v>46.67274087510062</v>
       </c>
       <c r="J45" t="n">
-        <v>228.1961137458697</v>
+        <v>97.98115805969026</v>
       </c>
       <c r="K45" t="n">
         <v>161.2208837581078</v>
@@ -38119,7 +38119,7 @@
         <v>122.4054701278209</v>
       </c>
       <c r="R45" t="n">
-        <v>46.92833504332883</v>
+        <v>153.4490424018196</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>125.4720636624518</v>
+        <v>46.76325896727919</v>
       </c>
       <c r="K46" t="n">
-        <v>339.574687825033</v>
+        <v>89.79427457854604</v>
       </c>
       <c r="L46" t="n">
-        <v>374.3725507583657</v>
+        <v>500.0053379069348</v>
       </c>
       <c r="M46" t="n">
         <v>126.8624484720496</v>
@@ -38192,10 +38192,10 @@
         <v>493.7663422029049</v>
       </c>
       <c r="P46" t="n">
-        <v>92.91941779521044</v>
+        <v>408.8347759500666</v>
       </c>
       <c r="Q46" t="n">
-        <v>208.1108546206025</v>
+        <v>95.05192725883727</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
